--- a/dex_parameters.xlsx
+++ b/dex_parameters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/new/PycharmProjects/DeFi Cheat/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/new/PycharmProjects/BuyTokenOnDex/v1.0.1/buyTokenOnDex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8534833-D9CB-D440-899F-EE517355516A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E7D100-7E50-4145-AAC1-C86A48E65224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{88565959-7D13-C549-BFB5-A27F108CA62F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{88565959-7D13-C549-BFB5-A27F108CA62F}"/>
   </bookViews>
   <sheets>
     <sheet name="dex_parameters" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="103">
   <si>
     <t>Dex</t>
   </si>
@@ -190,6 +190,156 @@
   </si>
   <si>
     <t>[{"type":"constructor","stateMutability":"nonpayable","inputs":[{"type":"address","name":"_factory","internalType":"address"},{"type":"address","name":"_WETH","internalType":"address"}]},{"type":"function","stateMutability":"view","outputs":[{"type":"address","name":"","internalType":"address"}],"name":"WETH","inputs":[]},{"type":"function","stateMutability":"nonpayable","outputs":[{"type":"uint256","name":"amountA","internalType":"uint256"},{"type":"uint256","name":"amountB","internalType":"uint256"},{"type":"uint256","name":"liquidity","internalType":"uint256"}],"name":"addLiquidity","inputs":[{"type":"address","name":"tokenA","internalType":"address"},{"type":"address","name":"tokenB","internalType":"address"},{"type":"uint256","name":"amountADesired","internalType":"uint256"},{"type":"uint256","name":"amountBDesired","internalType":"uint256"},{"type":"uint256","name":"amountAMin","internalType":"uint256"},{"type":"uint256","name":"amountBMin","internalType":"uint256"},{"type":"address","name":"to","internalType":"address"},{"type":"uint256","name":"deadline","internalType":"uint256"}]},{"type":"function","stateMutability":"payable","outputs":[{"type":"uint256","name":"amountToken","internalType":"uint256"},{"type":"uint256","name":"amountETH","internalType":"uint256"},{"type":"uint256","name":"liquidity","internalType":"uint256"}],"name":"addLiquidityETH","inputs":[{"type":"address","name":"token","internalType":"address"},{"type":"uint256","name":"amountTokenDesired","internalType":"uint256"},{"type":"uint256","name":"amountTokenMin","internalType":"uint256"},{"type":"uint256","name":"amountETHMin","internalType":"uint256"},{"type":"address","name":"to","internalType":"address"},{"type":"uint256","name":"deadline","internalType":"uint256"}]},{"type":"function","stateMutability":"view","outputs":[{"type":"address","name":"","internalType":"address"}],"name":"factory","inputs":[]},{"type":"function","stateMutability":"pure","outputs":[{"type":"uint256","name":"amountIn","internalType":"uint256"}],"name":"getAmountIn","inputs":[{"type":"uint256","name":"amountOut","internalType":"uint256"},{"type":"uint256","name":"reserveIn","internalType":"uint256"},{"type":"uint256","name":"reserveOut","internalType":"uint256"}]},{"type":"function","stateMutability":"pure","outputs":[{"type":"uint256","name":"amountOut","internalType":"uint256"}],"name":"getAmountOut","inputs":[{"type":"uint256","name":"amountIn","internalType":"uint256"},{"type":"uint256","name":"reserveIn","internalType":"uint256"},{"type":"uint256","name":"reserveOut","internalType":"uint256"}]},{"type":"function","stateMutability":"view","outputs":[{"type":"uint256[]","name":"amounts","internalType":"uint256[]"}],"name":"getAmountsIn","inputs":[{"type":"uint256","name":"amountOut","internalType":"uint256"},{"type":"address[]","name":"path","internalType":"address[]"}]},{"type":"function","stateMutability":"view","outputs":[{"type":"uint256[]","name":"amounts","internalType":"uint256[]"}],"name":"getAmountsOut","inputs":[{"type":"uint256","name":"amountIn","internalType":"uint256"},{"type":"address[]","name":"path","internalType":"address[]"}]},{"type":"function","stateMutability":"pure","outputs":[{"type":"uint256","name":"amountB","internalType":"uint256"}],"name":"quote","inputs":[{"type":"uint256","name":"amountA","internalType":"uint256"},{"type":"uint256","name":"reserveA","internalType":"uint256"},{"type":"uint256","name":"reserveB","internalType":"uint256"}]},{"type":"function","stateMutability":"nonpayable","outputs":[{"type":"uint256","name":"amountA","internalType":"uint256"},{"type":"uint256","name":"amountB","internalType":"uint256"}],"name":"removeLiquidity","inputs":[{"type":"address","name":"tokenA","internalType":"address"},{"type":"address","name":"tokenB","internalType":"address"},{"type":"uint256","name":"liquidity","internalType":"uint256"},{"type":"uint256","name":"amountAMin","internalType":"uint256"},{"type":"uint256","name":"amountBMin","internalType":"uint256"},{"type":"address","name":"to","internalType":"address"},{"type":"uint256","name":"deadline","internalType":"uint256"}]},{"type":"function","stateMutability":"nonpayable","outputs":[{"type":"uint256","name":"amountToken","internalType":"uint256"},{"type":"uint256","name":"amountETH","internalType":"uint256"}],"name":"removeLiquidityETH","inputs":[{"type":"address","name":"token","internalType":"address"},{"type":"uint256","name":"liquidity","internalType":"uint256"},{"type":"uint256","name":"amountTokenMin","internalType":"uint256"},{"type":"uint256","name":"amountETHMin","internalType":"uint256"},{"type":"address","name":"to","internalType":"address"},{"type":"uint256","name":"deadline","internalType":"uint256"}]},{"type":"function","stateMutability":"nonpayable","outputs":[{"type":"uint256","name":"amountETH","internalType":"uint256"}],"name":"removeLiquidityETHSupportingFeeOnTransferTokens","inputs":[{"type":"address","name":"token","internalType":"address"},{"type":"uint256","name":"liquidity","internalType":"uint256"},{"type":"uint256","name":"amountTokenMin","internalType":"uint256"},{"type":"uint256","name":"amountETHMin","internalType":"uint256"},{"type":"address","name":"to","internalType":"address"},{"type":"uint256","name":"deadline","internalType":"uint256"}]},{"type":"function","stateMutability":"nonpayable","outputs":[{"type":"uint256","name":"amountToken","internalType":"uint256"},{"type":"uint256","name":"amountETH","internalType":"uint256"}],"name":"removeLiquidityETHWithPermit","inputs":[{"type":"address","name":"token","internalType":"address"},{"type":"uint256","name":"liquidity","internalType":"uint256"},{"type":"uint256","name":"amountTokenMin","internalType":"uint256"},{"type":"uint256","name":"amountETHMin","internalType":"uint256"},{"type":"address","name":"to","internalType":"address"},{"type":"uint256","name":"deadline","internalType":"uint256"},{"type":"bool","name":"approveMax","internalType":"bool"},{"type":"uint8","name":"v","internalType":"uint8"},{"type":"bytes32","name":"r","internalType":"bytes32"},{"type":"bytes32","name":"s","internalType":"bytes32"}]},{"type":"function","stateMutability":"nonpayable","outputs":[{"type":"uint256","name":"amountETH","internalType":"uint256"}],"name":"removeLiquidityETHWithPermitSupportingFeeOnTransferTokens","inputs":[{"type":"address","name":"token","internalType":"address"},{"type":"uint256","name":"liquidity","internalType":"uint256"},{"type":"uint256","name":"amountTokenMin","internalType":"uint256"},{"type":"uint256","name":"amountETHMin","internalType":"uint256"},{"type":"address","name":"to","internalType":"address"},{"type":"uint256","name":"deadline","internalType":"uint256"},{"type":"bool","name":"approveMax","internalType":"bool"},{"type":"uint8","name":"v","internalType":"uint8"},{"type":"bytes32","name":"r","internalType":"bytes32"},{"type":"bytes32","name":"s","internalType":"bytes32"}]},{"type":"function","stateMutability":"nonpayable","outputs":[{"type":"uint256","name":"amountA","internalType":"uint256"},{"type":"uint256","name":"amountB","internalType":"uint256"}],"name":"removeLiquidityWithPermit","inputs":[{"type":"address","name":"tokenA","internalType":"address"},{"type":"address","name":"tokenB","internalType":"address"},{"type":"uint256","name":"liquidity","internalType":"uint256"},{"type":"uint256","name":"amountAMin","internalType":"uint256"},{"type":"uint256","name":"amountBMin","internalType":"uint256"},{"type":"address","name":"to","internalType":"address"},{"type":"uint256","name":"deadline","internalType":"uint256"},{"type":"bool","name":"approveMax","internalType":"bool"},{"type":"uint8","name":"v","internalType":"uint8"},{"type":"bytes32","name":"r","internalType":"bytes32"},{"type":"bytes32","name":"s","internalType":"bytes32"}]},{"type":"function","stateMutability":"payable","outputs":[{"type":"uint256[]","name":"amounts","internalType":"uint256[]"}],"name":"swapETHForExactTokens","inputs":[{"type":"uint256","name":"amountOut","internalType":"uint256"},{"type":"address[]","name":"path","internalType":"address[]"},{"type":"address","name":"to","internalType":"address"},{"type":"uint256","name":"deadline","internalType":"uint256"}]},{"type":"function","stateMutability":"payable","outputs":[{"type":"uint256[]","name":"amounts","internalType":"uint256[]"}],"name":"swapExactETHForTokens","inputs":[{"type":"uint256","name":"amountOutMin","internalType":"uint256"},{"type":"address[]","name":"path","internalType":"address[]"},{"type":"address","name":"to","internalType":"address"},{"type":"uint256","name":"deadline","internalType":"uint256"}]},{"type":"function","stateMutability":"payable","outputs":[],"name":"swapExactETHForTokensSupportingFeeOnTransferTokens","inputs":[{"type":"uint256","name":"amountOutMin","internalType":"uint256"},{"type":"address[]","name":"path","internalType":"address[]"},{"type":"address","name":"to","internalType":"address"},{"type":"uint256","name":"deadline","internalType":"uint256"}]},{"type":"function","stateMutability":"nonpayable","outputs":[{"type":"uint256[]","name":"amounts","internalType":"uint256[]"}],"name":"swapExactTokensForETH","inputs":[{"type":"uint256","name":"amountIn","internalType":"uint256"},{"type":"uint256","name":"amountOutMin","internalType":"uint256"},{"type":"address[]","name":"path","internalType":"address[]"},{"type":"address","name":"to","internalType":"address"},{"type":"uint256","name":"deadline","internalType":"uint256"}]},{"type":"function","stateMutability":"nonpayable","outputs":[],"name":"swapExactTokensForETHSupportingFeeOnTransferTokens","inputs":[{"type":"uint256","name":"amountIn","internalType":"uint256"},{"type":"uint256","name":"amountOutMin","internalType":"uint256"},{"type":"address[]","name":"path","internalType":"address[]"},{"type":"address","name":"to","internalType":"address"},{"type":"uint256","name":"deadline","internalType":"uint256"}]},{"type":"function","stateMutability":"nonpayable","outputs":[{"type":"uint256[]","name":"amounts","internalType":"uint256[]"}],"name":"swapExactTokensForTokens","inputs":[{"type":"uint256","name":"amountIn","internalType":"uint256"},{"type":"uint256","name":"amountOutMin","internalType":"uint256"},{"type":"address[]","name":"path","internalType":"address[]"},{"type":"address","name":"to","internalType":"address"},{"type":"uint256","name":"deadline","internalType":"uint256"}]},{"type":"function","stateMutability":"nonpayable","outputs":[],"name":"swapExactTokensForTokensSupportingFeeOnTransferTokens","inputs":[{"type":"uint256","name":"amountIn","internalType":"uint256"},{"type":"uint256","name":"amountOutMin","internalType":"uint256"},{"type":"address[]","name":"path","internalType":"address[]"},{"type":"address","name":"to","internalType":"address"},{"type":"uint256","name":"deadline","internalType":"uint256"}]},{"type":"function","stateMutability":"nonpayable","outputs":[{"type":"uint256[]","name":"amounts","internalType":"uint256[]"}],"name":"swapTokensForExactETH","inputs":[{"type":"uint256","name":"amountOut","internalType":"uint256"},{"type":"uint256","name":"amountInMax","internalType":"uint256"},{"type":"address[]","name":"path","internalType":"address[]"},{"type":"address","name":"to","internalType":"address"},{"type":"uint256","name":"deadline","internalType":"uint256"}]},{"type":"function","stateMutability":"nonpayable","outputs":[{"type":"uint256[]","name":"amounts","internalType":"uint256[]"}],"name":"swapTokensForExactTokens","inputs":[{"type":"uint256","name":"amountOut","internalType":"uint256"},{"type":"uint256","name":"amountInMax","internalType":"uint256"},{"type":"address[]","name":"path","internalType":"address[]"},{"type":"address","name":"to","internalType":"address"},{"type":"uint256","name":"deadline","internalType":"uint256"}]},{"type":"receive","stateMutability":"payable"}]</t>
+  </si>
+  <si>
+    <t>0xA7D7079b0FEaD91F3e65f86E8915Cb59c1a4C664</t>
+  </si>
+  <si>
+    <t>[{"inputs":[],"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"chainId","type":"uint256"}],"name":"AddSupportedChainId","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"contractAddress","type":"address"},{"indexed":false,"internalType":"uint256","name":"supplyIncrement","type":"uint256"}],"name":"AddSwapToken","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"newBridgeRoleAddress","type":"address"}],"name":"MigrateBridgeRole","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"},{"indexed":false,"internalType":"address","name":"feeAddress","type":"address"},{"indexed":false,"internalType":"uint256","name":"feeAmount","type":"uint256"},{"indexed":false,"internalType":"bytes32","name":"originTxId","type":"bytes32"}],"name":"Mint","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"contractAddress","type":"address"},{"indexed":false,"internalType":"uint256","name":"supplyDecrement","type":"uint256"}],"name":"RemoveSwapToken","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"token","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Swap","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"},{"indexed":false,"internalType":"uint256","name":"chainId","type":"uint256"}],"name":"Unwrap","type":"event"},{"inputs":[{"internalType":"uint256","name":"chainId","type":"uint256"}],"name":"addSupportedChainId","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"contractAddress","type":"address"},{"internalType":"uint256","name":"supplyIncrement","type":"uint256"}],"name":"addSwapToken","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"burn","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"account","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"burnFrom","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"","type":"uint256"}],"name":"chainIds","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"subtractedValue","type":"uint256"}],"name":"decreaseAllowance","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"addedValue","type":"uint256"}],"name":"increaseAllowance","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"newBridgeRoleAddress","type":"address"}],"name":"migrateBridgeRole","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"},{"internalType":"address","name":"feeAddress","type":"address"},{"internalType":"uint256","name":"feeAmount","type":"uint256"},{"internalType":"bytes32","name":"originTxId","type":"bytes32"}],"name":"mint","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"contractAddress","type":"address"},{"internalType":"uint256","name":"supplyDecrement","type":"uint256"}],"name":"removeSwapToken","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"token","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"swap","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"token","type":"address"}],"name":"swapSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"sender","type":"address"},{"internalType":"address","name":"recipient","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"},{"internalType":"uint256","name":"chainId","type":"uint256"}],"name":"unwrap","outputs":[],"stateMutability":"nonpayable","type":"function"}]</t>
+  </si>
+  <si>
+    <t>0x04068DA6C83AFCFA0e13ba15A6696662335D5B75</t>
+  </si>
+  <si>
+    <t>[{"inputs":[{"internalType":"string","name":"_name","type":"string"},{"internalType":"string","name":"_symbol","type":"string"},{"internalType":"uint8","name":"_decimals","type":"uint8"},{"internalType":"address","name":"_owner","type":"address"}],"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"oldOwner","type":"address"},{"indexed":true,"internalType":"address","name":"newOwner","type":"address"},{"indexed":true,"internalType":"uint256","name":"effectiveTime","type":"uint256"}],"name":"LogChangeDCRMOwner","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"bytes32","name":"txhash","type":"bytes32"},{"indexed":true,"internalType":"address","name":"account","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"LogSwapin","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"account","type":"address"},{"indexed":true,"internalType":"address","name":"bindaddr","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"LogSwapout","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"bytes32","name":"txhash","type":"bytes32"},{"internalType":"address","name":"account","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Swapin","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"},{"internalType":"address","name":"bindaddr","type":"address"}],"name":"Swapout","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"TRANSFER_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"approveAndCall","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"newOwner","type":"address"}],"name":"changeDCRMOwner","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"owner","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"target","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"transferAndCall","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"target","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"transferWithPermit","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"}]</t>
+  </si>
+  <si>
+    <t>0xE3F5a90F9cb311505cd691a46596599aA1A0AD7D</t>
+  </si>
+  <si>
+    <t>[{"inputs":[{"internalType":"string","name":"_name","type":"string"},{"internalType":"string","name":"_symbol","type":"string"},{"internalType":"uint8","name":"_decimals","type":"uint8"},{"internalType":"address","name":"_underlying","type":"address"},{"internalType":"address","name":"_vault","type":"address"}],"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"auth","type":"address"},{"indexed":false,"internalType":"uint256","name":"timestamp","type":"uint256"}],"name":"LogAddAuth","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"oldOwner","type":"address"},{"indexed":true,"internalType":"address","name":"newOwner","type":"address"},{"indexed":true,"internalType":"uint256","name":"effectiveHeight","type":"uint256"}],"name":"LogChangeMPCOwner","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"oldVault","type":"address"},{"indexed":true,"internalType":"address","name":"newVault","type":"address"},{"indexed":true,"internalType":"uint256","name":"effectiveTime","type":"uint256"}],"name":"LogChangeVault","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"bytes32","name":"txhash","type":"bytes32"},{"indexed":true,"internalType":"address","name":"account","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"LogSwapin","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"account","type":"address"},{"indexed":true,"internalType":"address","name":"bindaddr","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"LogSwapout","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"bytes32","name":"txhash","type":"bytes32"},{"internalType":"address","name":"account","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"Swapin","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"},{"internalType":"address","name":"bindaddr","type":"address"}],"name":"Swapout","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"TRANSFER_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"applyMinter","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"applyVault","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"approveAndCall","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"burn","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"newVault","type":"address"}],"name":"changeMPCOwner","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"newVault","type":"address"}],"name":"changeVault","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"delay","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"delayDelay","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"delayMinter","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"delayVault","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"},{"internalType":"address","name":"to","type":"address"}],"name":"deposit","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"deposit","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"deposit","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"},{"internalType":"address","name":"to","type":"address"}],"name":"depositVault","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"target","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"},{"internalType":"address","name":"to","type":"address"}],"name":"depositWithPermit","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"target","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"},{"internalType":"address","name":"to","type":"address"}],"name":"depositWithTransferPermit","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"getAllMinters","outputs":[{"internalType":"address[]","name":"","type":"address[]"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"_vault","type":"address"}],"name":"initVault","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"isMinter","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"","type":"uint256"}],"name":"minters","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"mpc","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"owner","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"pendingDelay","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"pendingMinter","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"pendingVault","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"target","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"_auth","type":"address"}],"name":"revokeMinter","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"_auth","type":"address"}],"name":"setMinter","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"_vault","type":"address"}],"name":"setVault","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"bool","name":"enabled","type":"bool"}],"name":"setVaultOnly","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"transferAndCall","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"target","type":"address"},{"internalType":"address","name":"to","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"transferWithPermit","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"underlying","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"vault","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"},{"internalType":"address","name":"to","type":"address"}],"name":"withdraw","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"withdraw","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"withdraw","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"from","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"},{"internalType":"address","name":"to","type":"address"}],"name":"withdrawVault","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"nonpayable","type":"function"}]</t>
+  </si>
+  <si>
+    <t>0xc21223249CA28397B4B6541dfFaEcC539BfF0c59</t>
+  </si>
+  <si>
+    <t>StablecoinTokenAddress</t>
+  </si>
+  <si>
+    <t>StablecoinTokenAbi</t>
+  </si>
+  <si>
+    <t>0xe9e7CEA3DedcA5984780Bafc599bD69ADd087D56</t>
+  </si>
+  <si>
+    <t>[{"inputs":[],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"previousOwner","type":"address"},{"indexed":true,"internalType":"address","name":"newOwner","type":"address"}],"name":"OwnershipTransferred","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"constant":true,"inputs":[],"name":"_decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"_name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"_symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"burn","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"subtractedValue","type":"uint256"}],"name":"decreaseAllowance","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"getOwner","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"addedValue","type":"uint256"}],"name":"increaseAllowance","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"mint","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"owner","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[],"name":"renounceOwnership","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"sender","type":"address"},{"internalType":"address","name":"recipient","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"newOwner","type":"address"}],"name":"transferOwnership","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"}]</t>
+  </si>
+  <si>
+    <t>[{"inputs":[{"internalType":"string","name":"_name","type":"string"},{"internalType":"string","name":"_symbol","type":"string"},{"internalType":"address","name":"_creator_address","type":"address"},{"internalType":"uint256","name":"_initial_mint_amt","type":"uint256"},{"internalType":"address","name":"_custodian_address","type":"address"},{"internalType":"address[]","name":"_bridge_tokens","type":"address[]"}],"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"owner","type":"address"},{"indexed":true,"internalType":"address","name":"spender","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Approval","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"bridge_token_address","type":"address"}],"name":"BridgeTokenAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"bridge_token_address","type":"address"},{"indexed":false,"internalType":"bool","name":"state","type":"bool"}],"name":"BridgeTokenToggled","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"global_collateral_ratio","type":"uint256"}],"name":"CollateralRatioRefreshed","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"custodian_address","type":"address"}],"name":"CustodianSet","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"uint256","name":"new_mint_cap","type":"uint256"}],"name":"MintCapSet","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"pool_address","type":"address"}],"name":"MinterAdded","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"pool_address","type":"address"}],"name":"MinterRemoved","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"oldOwner","type":"address"},{"indexed":false,"internalType":"address","name":"newOwner","type":"address"}],"name":"OwnerChanged","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"newOwner","type":"address"}],"name":"OwnerNominated","type":"event"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"new_timelock","type":"address"}],"name":"TimelockSet","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"TokenBurned","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"amount","type":"uint256"}],"name":"TokenMinted","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"from","type":"address"},{"indexed":true,"internalType":"address","name":"to","type":"address"},{"indexed":false,"internalType":"uint256","name":"value","type":"uint256"}],"name":"Transfer","type":"event"},{"inputs":[],"name":"DOMAIN_SEPARATOR","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"PERMIT_TYPEHASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"acceptOwnership","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"bridge_token_address","type":"address"}],"name":"addBridgeToken","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"minter_address","type":"address"}],"name":"addMinter","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"allBridgeTokens","outputs":[{"internalType":"address[]","name":"","type":"address[]"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"}],"name":"allowance","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"approve","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"account","type":"address"}],"name":"balanceOf","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"bridge_tokens","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"uint256","name":"","type":"uint256"}],"name":"bridge_tokens_array","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"burn","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"account","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"burnFrom","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"canSwap","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"custodian_address","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"decimals","outputs":[{"internalType":"uint8","name":"","type":"uint8"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"subtractedValue","type":"uint256"}],"name":"decreaseAllowance","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"bridge_token_address","type":"address"},{"internalType":"uint256","name":"token_amount","type":"uint256"}],"name":"exchangeCanonicalForOld","outputs":[{"internalType":"uint256","name":"bridge_tokens_out","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"bridge_token_address","type":"address"},{"internalType":"uint256","name":"token_amount","type":"uint256"}],"name":"exchangeOldForCanonical","outputs":[{"internalType":"uint256","name":"canonical_tokens_out","type":"uint256"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"exchangesPaused","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"_to","type":"address"},{"internalType":"uint256","name":"_value","type":"uint256"},{"internalType":"bytes","name":"_data","type":"bytes"}],"name":"execute","outputs":[{"internalType":"bool","name":"","type":"bool"},{"internalType":"bytes","name":"","type":"bytes"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"fee_exempt_list","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"addedValue","type":"uint256"}],"name":"increaseAllowance","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"mint_cap","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"minter_burn","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"m_address","type":"address"},{"internalType":"uint256","name":"m_amount","type":"uint256"}],"name":"minter_mint","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"}],"name":"minters","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"uint256","name":"","type":"uint256"}],"name":"minters_array","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"name","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"_owner","type":"address"}],"name":"nominateNewOwner","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"nominatedOwner","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"owner","type":"address"}],"name":"nonces","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"owner","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"owner","type":"address"},{"internalType":"address","name":"spender","type":"address"},{"internalType":"uint256","name":"value","type":"uint256"},{"internalType":"uint256","name":"deadline","type":"uint256"},{"internalType":"uint8","name":"v","type":"uint8"},{"internalType":"bytes32","name":"r","type":"bytes32"},{"internalType":"bytes32","name":"s","type":"bytes32"}],"name":"permit","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"tokenAddress","type":"address"},{"internalType":"uint256","name":"tokenAmount","type":"uint256"}],"name":"recoverERC20","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"minter_address","type":"address"}],"name":"removeMinter","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"_custodian_address","type":"address"}],"name":"setCustodian","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"uint256","name":"_mint_cap","type":"uint256"}],"name":"setMintCap","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"bridge_token_address","type":"address"},{"internalType":"uint256","name":"_bridge_to_canonical","type":"uint256"},{"internalType":"uint256","name":"_canonical_to_old","type":"uint256"}],"name":"setSwapFees","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"new_timelock","type":"address"}],"name":"setTimelock","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"uint256","name":"","type":"uint256"}],"name":"swap_fees","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"symbol","outputs":[{"internalType":"string","name":"","type":"string"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"timelock_address","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"bridge_token_address","type":"address"}],"name":"toggleBridgeToken","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"toggleExchanges","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"the_address","type":"address"}],"name":"toggleFeesForAddress","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"totalSupply","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"recipient","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transfer","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"sender","type":"address"},{"internalType":"address","name":"recipient","type":"address"},{"internalType":"uint256","name":"amount","type":"uint256"}],"name":"transferFrom","outputs":[{"internalType":"bool","name":"","type":"bool"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"bridge_token_address","type":"address"},{"internalType":"uint256","name":"bridge_token_amount","type":"uint256"}],"name":"withdrawBridgeTokens","outputs":[],"stateMutability":"nonpayable","type":"function"}]</t>
+  </si>
+  <si>
+    <t>0x5ce9F0B6AFb36135b5ddBF11705cEB65E634A9dC</t>
+  </si>
+  <si>
+    <t>USD Coin</t>
+  </si>
+  <si>
+    <t>USDC.e</t>
+  </si>
+  <si>
+    <t>USDC</t>
+  </si>
+  <si>
+    <t>0x2791bca1f2de4661ed88a30c99a7a9449aa84174</t>
+  </si>
+  <si>
+    <t>[{"inputs":[{"internalType":"address","name":"_proxyTo","type":"address"}],"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":false,"internalType":"address","name":"_new","type":"address"},{"indexed":false,"internalType":"address","name":"_old","type":"address"}],"name":"ProxyOwnerUpdate","type":"event"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"_new","type":"address"},{"indexed":true,"internalType":"address","name":"_old","type":"address"}],"name":"ProxyUpdated","type":"event"},{"stateMutability":"payable","type":"fallback"},{"inputs":[],"name":"IMPLEMENTATION_SLOT","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"OWNER_SLOT","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"implementation","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"proxyOwner","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"proxyType","outputs":[{"internalType":"uint256","name":"proxyTypeId","type":"uint256"}],"stateMutability":"pure","type":"function"},{"inputs":[{"internalType":"address","name":"newOwner","type":"address"}],"name":"transferProxyOwnership","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"_newProxyTo","type":"address"},{"internalType":"bytes","name":"data","type":"bytes"}],"name":"updateAndCall","outputs":[],"stateMutability":"payable","type":"function"},{"inputs":[{"internalType":"address","name":"_newProxyTo","type":"address"}],"name":"updateImplementation","outputs":[],"stateMutability":"nonpayable","type":"function"},{"stateMutability":"payable","type":"receive"}]</t>
+  </si>
+  <si>
+    <t>Binance USD</t>
+  </si>
+  <si>
+    <t>BUSD</t>
+  </si>
+  <si>
+    <t>StablecoinName</t>
+  </si>
+  <si>
+    <t>StablecoinSymbol</t>
+  </si>
+  <si>
+    <t>StablecoinDecimals</t>
+  </si>
+  <si>
+    <t>UST Terra</t>
+  </si>
+  <si>
+    <t>atUST</t>
+  </si>
+  <si>
+    <t>FactoryAddress</t>
+  </si>
+  <si>
+    <t>FactoryAddressAbi</t>
+  </si>
+  <si>
+    <t>0x049581aEB6Fe262727f290165C29BDAB065a1B68</t>
+  </si>
+  <si>
+    <t>[{"inputs":[{"internalType":"address","name":"_feeToSetter","type":"address"}],"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"token0","type":"address"},{"indexed":true,"internalType":"address","name":"token1","type":"address"},{"indexed":false,"internalType":"address","name":"pair","type":"address"},{"indexed":false,"internalType":"uint256","name":"","type":"uint256"}],"name":"PairCreated","type":"event"},{"inputs":[],"name":"INIT_CODE_PAIR_HASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"uint256","name":"","type":"uint256"}],"name":"allPairs","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"allPairsLength","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"auro","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"tokenA","type":"address"},{"internalType":"address","name":"tokenB","type":"address"}],"name":"createPair","outputs":[{"internalType":"address","name":"pair","type":"address"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"pairAddress","type":"address"}],"name":"disableMetaTxnsPair","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"pairAddress","type":"address"}],"name":"enableMetaTxnsPair","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"feeTo","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"feeToSetter","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"getPair","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"migrator","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"_auro","type":"address"}],"name":"setAuroAddress","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"_feeTo","type":"address"}],"name":"setFeeTo","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"_feeToSetter","type":"address"}],"name":"setFeeToSetter","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"_migrator","type":"address"}],"name":"setMigrator","outputs":[],"stateMutability":"nonpayable","type":"function"}]</t>
+  </si>
+  <si>
+    <t>[{"inputs":[{"internalType":"address","name":"_feeToSetter","type":"address"}],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"token0","type":"address"},{"indexed":true,"internalType":"address","name":"token1","type":"address"},{"indexed":false,"internalType":"address","name":"pair","type":"address"},{"indexed":false,"internalType":"uint256","name":"","type":"uint256"}],"name":"PairCreated","type":"event"},{"constant":true,"inputs":[],"name":"INIT_CODE_PAIR_HASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"uint256","name":"","type":"uint256"}],"name":"allPairs","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"allPairsLength","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"tokenA","type":"address"},{"internalType":"address","name":"tokenB","type":"address"}],"name":"createPair","outputs":[{"internalType":"address","name":"pair","type":"address"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"feeTo","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"feeToSetter","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"getPair","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_feeTo","type":"address"}],"name":"setFeeTo","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_feeToSetter","type":"address"}],"name":"setFeeToSetter","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"}]</t>
+  </si>
+  <si>
+    <t>0xcA143Ce32Fe78f1f7019d7d551a6402fC5350c73</t>
+  </si>
+  <si>
+    <t>0x9Ad6C38BE94206cA50bb0d90783181662f0Cfa10</t>
+  </si>
+  <si>
+    <t>[{"inputs":[{"internalType":"address","name":"_feeToSetter","type":"address"}],"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"token0","type":"address"},{"indexed":true,"internalType":"address","name":"token1","type":"address"},{"indexed":false,"internalType":"address","name":"pair","type":"address"},{"indexed":false,"internalType":"uint256","name":"","type":"uint256"}],"name":"PairCreated","type":"event"},{"inputs":[{"internalType":"uint256","name":"","type":"uint256"}],"name":"allPairs","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"allPairsLength","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"tokenA","type":"address"},{"internalType":"address","name":"tokenB","type":"address"}],"name":"createPair","outputs":[{"internalType":"address","name":"pair","type":"address"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"feeTo","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"feeToSetter","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"getPair","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"migrator","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"pairCodeHash","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"pure","type":"function"},{"inputs":[{"internalType":"address","name":"_feeTo","type":"address"}],"name":"setFeeTo","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"_feeToSetter","type":"address"}],"name":"setFeeToSetter","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"_migrator","type":"address"}],"name":"setMigrator","outputs":[],"stateMutability":"nonpayable","type":"function"}]</t>
+  </si>
+  <si>
+    <t>0xef45d134b73241eda7703fa787148d9c9f4950b0</t>
+  </si>
+  <si>
+    <t>[{"inputs":[{"internalType":"address","name":"_feeToSetter","type":"address"},{"internalType":"bool","name":"_locked","type":"bool"}],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"token0","type":"address"},{"indexed":true,"internalType":"address","name":"token1","type":"address"},{"indexed":false,"internalType":"address","name":"pair","type":"address"},{"indexed":false,"internalType":"uint256","name":"","type":"uint256"}],"name":"PairCreated","type":"event"},{"constant":true,"inputs":[],"name":"INIT_CODE_PAIR_HASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"uint256","name":"","type":"uint256"}],"name":"allPairs","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"allPairsLength","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"tokenA","type":"address"},{"internalType":"address","name":"tokenB","type":"address"}],"name":"createPair","outputs":[{"internalType":"address","name":"pair","type":"address"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"feeTo","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"feeToSetter","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"getPair","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"locked","outputs":[{"internalType":"bool","name":"","type":"bool"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_feeTo","type":"address"}],"name":"setFeeTo","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_feeToSetter","type":"address"}],"name":"setFeeToSetter","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"bool","name":"_locked","type":"bool"}],"name":"setLocked","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"}]</t>
+  </si>
+  <si>
+    <t>0x152ee697f2e276fa89e96742e9bb9ab1f2e61be3</t>
+  </si>
+  <si>
+    <t>[{"inputs":[{"internalType":"address","name":"_feeToSetter","type":"address"}],"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"token0","type":"address"},{"indexed":true,"internalType":"address","name":"token1","type":"address"},{"indexed":false,"internalType":"address","name":"pair","type":"address"},{"indexed":false,"internalType":"uint256","name":"","type":"uint256"}],"name":"PairCreated","type":"event"},{"inputs":[],"name":"INIT_CODE_PAIR_HASH","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"uint256","name":"","type":"uint256"}],"name":"allPairs","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"allPairsLength","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"tokenA","type":"address"},{"internalType":"address","name":"tokenB","type":"address"}],"name":"createPair","outputs":[{"internalType":"address","name":"pair","type":"address"}],"stateMutability":"nonpayable","type":"function"},{"inputs":[],"name":"feeTo","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"feeToSetter","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"getPair","outputs":[{"internalType":"address","name":"","type":"address"}],"stateMutability":"view","type":"function"},{"inputs":[],"name":"pairCodeHash","outputs":[{"internalType":"bytes32","name":"","type":"bytes32"}],"stateMutability":"pure","type":"function"},{"inputs":[{"internalType":"address","name":"_feeTo","type":"address"}],"name":"setFeeTo","outputs":[],"stateMutability":"nonpayable","type":"function"},{"inputs":[{"internalType":"address","name":"_feeToSetter","type":"address"}],"name":"setFeeToSetter","outputs":[],"stateMutability":"nonpayable","type":"function"}]</t>
+  </si>
+  <si>
+    <t>0x3b44b2a187a7b3824131f8db5a74194d0a42fc15</t>
+  </si>
+  <si>
+    <t>[{"type":"constructor","stateMutability":"nonpayable","payable":false,"inputs":[{"type":"address","name":"_feeToSetter","internalType":"address"}]},{"type":"event","name":"PairCreated","inputs":[{"type":"address","name":"token0","internalType":"address","indexed":true},{"type":"address","name":"token1","internalType":"address","indexed":true},{"type":"address","name":"pair","internalType":"address","indexed":false},{"type":"uint256","name":"","internalType":"uint256","indexed":false}],"anonymous":false},{"type":"function","stateMutability":"view","payable":false,"outputs":[{"type":"bytes32","name":"","internalType":"bytes32"}],"name":"INIT_CODE_PAIR_HASH","inputs":[],"constant":true},{"type":"function","stateMutability":"view","payable":false,"outputs":[{"type":"address","name":"","internalType":"address"}],"name":"allPairs","inputs":[{"type":"uint256","name":"","internalType":"uint256"}],"constant":true},{"type":"function","stateMutability":"view","payable":false,"outputs":[{"type":"uint256","name":"","internalType":"uint256"}],"name":"allPairsLength","inputs":[],"constant":true},{"type":"function","stateMutability":"nonpayable","payable":false,"outputs":[{"type":"address","name":"pair","internalType":"address"}],"name":"createPair","inputs":[{"type":"address","name":"tokenA","internalType":"address"},{"type":"address","name":"tokenB","internalType":"address"}],"constant":false},{"type":"function","stateMutability":"view","payable":false,"outputs":[{"type":"address","name":"","internalType":"address"}],"name":"feeTo","inputs":[],"constant":true},{"type":"function","stateMutability":"view","payable":false,"outputs":[{"type":"address","name":"","internalType":"address"}],"name":"feeToSetter","inputs":[],"constant":true},{"type":"function","stateMutability":"view","payable":false,"outputs":[{"type":"address","name":"","internalType":"address"}],"name":"getPair","inputs":[{"type":"address","name":"","internalType":"address"},{"type":"address","name":"","internalType":"address"}],"constant":true},{"type":"function","stateMutability":"nonpayable","payable":false,"outputs":[],"name":"setFeeTo","inputs":[{"type":"address","name":"_feeTo","internalType":"address"}],"constant":false},{"type":"function","stateMutability":"nonpayable","payable":false,"outputs":[],"name":"setFeeToSetter","inputs":[{"type":"address","name":"_feeToSetter","internalType":"address"}],"constant":false}]</t>
+  </si>
+  <si>
+    <t>0xc66F594268041dB60507F00703b152492fb176E7</t>
+  </si>
+  <si>
+    <t>[{"inputs":[{"internalType":"address","name":"_feeToSetter","type":"address"}],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"token0","type":"address"},{"indexed":true,"internalType":"address","name":"token1","type":"address"},{"indexed":false,"internalType":"address","name":"pair","type":"address"},{"indexed":false,"internalType":"uint256","name":"","type":"uint256"}],"name":"PairCreated","type":"event"},{"constant":true,"inputs":[{"internalType":"uint256","name":"","type":"uint256"}],"name":"allPairs","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"allPairsLength","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"tokenA","type":"address"},{"internalType":"address","name":"tokenB","type":"address"}],"name":"createPair","outputs":[{"internalType":"address","name":"pair","type":"address"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"feeTo","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"feeToSetter","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"getPair","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_feeTo","type":"address"}],"name":"setFeeTo","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_feeToSetter","type":"address"}],"name":"setFeeToSetter","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"}]</t>
+  </si>
+  <si>
+    <t>0x5C69bEe701ef814a2B6a3EDD4B1652CB9cc5aA6f</t>
+  </si>
+  <si>
+    <t>Explorer</t>
+  </si>
+  <si>
+    <t>https://moonriver.moonscan.io/</t>
+  </si>
+  <si>
+    <t>https://ftmscan.com/</t>
+  </si>
+  <si>
+    <t>https://snowtrace.io/</t>
+  </si>
+  <si>
+    <t>https://bscscan.com/</t>
+  </si>
+  <si>
+    <t>https://cronos.crypto.org/explorer/</t>
+  </si>
+  <si>
+    <t>https://explorer.mainnet.aurora.dev/</t>
+  </si>
+  <si>
+    <t>https://polygonscan.com/</t>
   </si>
 </sst>
 </file>
@@ -553,10 +703,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88998168-CC66-D04F-A4D5-FDD2D1EEBC84}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -564,13 +717,21 @@
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="255.83203125" customWidth="1"/>
+    <col min="12" max="12" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -581,19 +742,43 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>35</v>
       </c>
+      <c r="N1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -603,20 +788,44 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="M2" t="s">
         <v>9</v>
       </c>
+      <c r="N2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -626,20 +835,44 @@
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="M3" t="s">
         <v>16</v>
       </c>
+      <c r="N3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -649,20 +882,44 @@
       <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
+      <c r="M4" t="s">
         <v>9</v>
       </c>
+      <c r="N4" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -672,20 +929,44 @@
       <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" t="s">
         <v>23</v>
       </c>
-      <c r="G5" t="s">
+      <c r="M5" t="s">
         <v>9</v>
       </c>
+      <c r="N5" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -695,20 +976,44 @@
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>29</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" t="s">
         <v>30</v>
       </c>
-      <c r="G6" t="s">
+      <c r="M6" t="s">
         <v>31</v>
       </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -718,20 +1023,44 @@
       <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>7</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" t="s">
         <v>40</v>
       </c>
-      <c r="G7" t="s">
+      <c r="M7" t="s">
         <v>9</v>
       </c>
+      <c r="N7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -741,21 +1070,44 @@
       <c r="C8" t="s">
         <v>43</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" t="s">
         <v>44</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>7</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" t="s">
         <v>45</v>
       </c>
-      <c r="G8" t="s">
+      <c r="M8" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="N8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -765,17 +1117,41 @@
       <c r="C9" t="s">
         <v>48</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
         <v>49</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>50</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" t="s">
         <v>51</v>
       </c>
-      <c r="G9" t="s">
+      <c r="M9" t="s">
         <v>52</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -786,6 +1162,14 @@
     <hyperlink ref="C5" r:id="rId4" xr:uid="{9A227C98-F9AC-1048-9303-57A39C9856C3}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{F5F43F09-3564-9942-B1DA-80E21B44E1AB}"/>
     <hyperlink ref="C7" r:id="rId6" xr:uid="{18609CA7-5AA4-0E41-B8EB-45FCD244B03B}"/>
+    <hyperlink ref="D6" r:id="rId7" xr:uid="{6123A671-3F14-3947-9FAA-9954349F2C2D}"/>
+    <hyperlink ref="D5" r:id="rId8" xr:uid="{E2ED65B4-2D65-6D4F-9611-E9437C698614}"/>
+    <hyperlink ref="D4" r:id="rId9" xr:uid="{C25F3E10-5A97-474A-8302-171D6E12A068}"/>
+    <hyperlink ref="D3" r:id="rId10" xr:uid="{6C8593F4-E39C-7044-BAB4-116000ECB4E1}"/>
+    <hyperlink ref="D2" r:id="rId11" xr:uid="{D2ABED63-83FA-AA46-8685-A144C62D2069}"/>
+    <hyperlink ref="D9" r:id="rId12" xr:uid="{699E65F7-54AF-5445-BBA2-CA3429208577}"/>
+    <hyperlink ref="D8" r:id="rId13" xr:uid="{7406FDF9-A9F3-6B4E-ADAF-81CB163E94D8}"/>
+    <hyperlink ref="D7" r:id="rId14" xr:uid="{0155EACC-5915-2446-9A96-04B353907789}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dex_parameters.xlsx
+++ b/dex_parameters.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/new/PycharmProjects/BuyTokenOnDex/v1.0.1/buyTokenOnDex/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/new/PycharmProjects/BuyTokenOnDex/v1.0.2/buyTokenOnDex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E7D100-7E50-4145-AAC1-C86A48E65224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D9761D-6F08-6948-A723-35A21ED19BB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{88565959-7D13-C549-BFB5-A27F108CA62F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="114">
   <si>
     <t>Dex</t>
   </si>
@@ -147,9 +147,6 @@
     <t>polygon</t>
   </si>
   <si>
-    <t>https://rpc-mainnet.maticvigil.com/</t>
-  </si>
-  <si>
     <t>0x0d500B1d8E8eF31E21C99d1Db9A6444d3ADf1270</t>
   </si>
   <si>
@@ -340,6 +337,42 @@
   </si>
   <si>
     <t>https://polygonscan.com/</t>
+  </si>
+  <si>
+    <t>https://polygon-rpc.com/</t>
+  </si>
+  <si>
+    <t>thetys</t>
+  </si>
+  <si>
+    <t>metis</t>
+  </si>
+  <si>
+    <t>https://andromeda-explorer.metis.io/</t>
+  </si>
+  <si>
+    <t>https://andromeda.metis.io/?owner=1088</t>
+  </si>
+  <si>
+    <t>[{"type":"event","name":"Approval","inputs":[{"type":"address","name":"src","internalType":"address","indexed":true},{"type":"address","name":"guy","internalType":"address","indexed":true},{"type":"uint256","name":"wad","internalType":"uint256","indexed":false}],"anonymous":false},{"type":"event","name":"Deposit","inputs":[{"type":"address","name":"dst","internalType":"address","indexed":true},{"type":"uint256","name":"wad","internalType":"uint256","indexed":false}],"anonymous":false},{"type":"event","name":"Transfer","inputs":[{"type":"address","name":"src","internalType":"address","indexed":true},{"type":"address","name":"dst","internalType":"address","indexed":true},{"type":"uint256","name":"wad","internalType":"uint256","indexed":false}],"anonymous":false},{"type":"event","name":"Withdrawal","inputs":[{"type":"address","name":"src","internalType":"address","indexed":true},{"type":"uint256","name":"wad","internalType":"uint256","indexed":false}],"anonymous":false},{"type":"function","stateMutability":"view","outputs":[{"type":"uint256","name":"","internalType":"uint256"}],"name":"allowance","inputs":[{"type":"address","name":"","internalType":"address"},{"type":"address","name":"","internalType":"address"}]},{"type":"function","stateMutability":"nonpayable","outputs":[{"type":"bool","name":"","internalType":"bool"}],"name":"approve","inputs":[{"type":"address","name":"guy","internalType":"address"},{"type":"uint256","name":"wad","internalType":"uint256"}]},{"type":"function","stateMutability":"view","outputs":[{"type":"uint256","name":"","internalType":"uint256"}],"name":"balanceOf","inputs":[{"type":"address","name":"","internalType":"address"}]},{"type":"function","stateMutability":"view","outputs":[{"type":"uint8","name":"","internalType":"uint8"}],"name":"decimals","inputs":[]},{"type":"function","stateMutability":"payable","outputs":[],"name":"deposit","inputs":[]},{"type":"function","stateMutability":"view","outputs":[{"type":"string","name":"","internalType":"string"}],"name":"name","inputs":[]},{"type":"function","stateMutability":"view","outputs":[{"type":"string","name":"","internalType":"string"}],"name":"symbol","inputs":[]},{"type":"function","stateMutability":"view","outputs":[{"type":"uint256","name":"","internalType":"uint256"}],"name":"totalSupply","inputs":[]},{"type":"function","stateMutability":"nonpayable","outputs":[{"type":"bool","name":"","internalType":"bool"}],"name":"transfer","inputs":[{"type":"address","name":"dst","internalType":"address"},{"type":"uint256","name":"wad","internalType":"uint256"}]},{"type":"function","stateMutability":"nonpayable","outputs":[{"type":"bool","name":"","internalType":"bool"}],"name":"transferFrom","inputs":[{"type":"address","name":"src","internalType":"address"},{"type":"address","name":"dst","internalType":"address"},{"type":"uint256","name":"wad","internalType":"uint256"}]},{"type":"function","stateMutability":"nonpayable","outputs":[],"name":"withdraw","inputs":[{"type":"uint256","name":"wad","internalType":"uint256"}]},{"type":"receive","stateMutability":"payable"}]</t>
+  </si>
+  <si>
+    <t>0xEA32A96608495e54156Ae48931A7c20f0dcc1a21</t>
+  </si>
+  <si>
+    <t>m.USDC</t>
+  </si>
+  <si>
+    <t>0x81b9FA50D5f5155Ee17817C21702C3AE4780AD09</t>
+  </si>
+  <si>
+    <t>0x2CdFB20205701FF01689461610C9F321D1d00F80</t>
+  </si>
+  <si>
+    <t>[{"type":"constructor","stateMutability":"nonpayable","inputs":[{"type":"address","name":"_feeToSetter","internalType":"address"}]},{"type":"event","name":"PairCreated","inputs":[{"type":"address","name":"token0","internalType":"address","indexed":true},{"type":"address","name":"token1","internalType":"address","indexed":true},{"type":"address","name":"pair","internalType":"address","indexed":false},{"type":"uint256","name":"","internalType":"uint256","indexed":false}],"anonymous":false},{"type":"function","stateMutability":"view","outputs":[{"type":"bytes32","name":"","internalType":"bytes32"}],"name":"INIT_CODE_PAIR_HASH","inputs":[]},{"type":"function","stateMutability":"view","outputs":[{"type":"address","name":"","internalType":"address"}],"name":"allPairs","inputs":[{"type":"uint256","name":"","internalType":"uint256"}]},{"type":"function","stateMutability":"view","outputs":[{"type":"uint256","name":"","internalType":"uint256"}],"name":"allPairsLength","inputs":[]},{"type":"function","stateMutability":"nonpayable","outputs":[{"type":"address","name":"pair","internalType":"address"}],"name":"createPair","inputs":[{"type":"address","name":"tokenA","internalType":"address"},{"type":"address","name":"tokenB","internalType":"address"}]},{"type":"function","stateMutability":"view","outputs":[{"type":"address","name":"","internalType":"address"}],"name":"feeTo","inputs":[]},{"type":"function","stateMutability":"view","outputs":[{"type":"address","name":"","internalType":"address"}],"name":"feeToSetter","inputs":[]},{"type":"function","stateMutability":"view","outputs":[{"type":"address","name":"","internalType":"address"}],"name":"getPair","inputs":[{"type":"address","name":"","internalType":"address"},{"type":"address","name":"","internalType":"address"}]},{"type":"function","stateMutability":"pure","outputs":[{"type":"bytes32","name":"","internalType":"bytes32"}],"name":"pairCodeHash","inputs":[]},{"type":"function","stateMutability":"nonpayable","outputs":[],"name":"setFeeTo","inputs":[{"type":"address","name":"_feeTo","internalType":"address"}]},{"type":"function","stateMutability":"nonpayable","outputs":[],"name":"setFeeToSetter","inputs":[{"type":"address","name":"_feeToSetter","internalType":"address"}]}]</t>
+  </si>
+  <si>
+    <t>0xDeadDeAddeAddEAddeadDEaDDEAdDeaDDeAD0000</t>
   </si>
 </sst>
 </file>
@@ -703,13 +736,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88998168-CC66-D04F-A4D5-FDD2D1EEBC84}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -742,7 +775,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E1" t="s">
         <v>32</v>
@@ -751,19 +784,19 @@
         <v>33</v>
       </c>
       <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" t="s">
         <v>60</v>
-      </c>
-      <c r="H1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K1" t="s">
-        <v>61</v>
       </c>
       <c r="L1" t="s">
         <v>34</v>
@@ -772,10 +805,10 @@
         <v>35</v>
       </c>
       <c r="N1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" t="s">
         <v>78</v>
-      </c>
-      <c r="O1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -789,7 +822,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -798,19 +831,19 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
         <v>71</v>
-      </c>
-      <c r="I2" t="s">
-        <v>72</v>
       </c>
       <c r="J2">
         <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L2" t="s">
         <v>8</v>
@@ -819,10 +852,10 @@
         <v>9</v>
       </c>
       <c r="N2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -836,7 +869,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -845,19 +878,19 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" t="s">
         <v>66</v>
-      </c>
-      <c r="I3" t="s">
-        <v>67</v>
       </c>
       <c r="J3">
         <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s">
         <v>15</v>
@@ -866,10 +899,10 @@
         <v>16</v>
       </c>
       <c r="N3" t="s">
+        <v>83</v>
+      </c>
+      <c r="O3" t="s">
         <v>84</v>
-      </c>
-      <c r="O3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -883,7 +916,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -892,19 +925,19 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J4">
         <v>6</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L4" t="s">
         <v>21</v>
@@ -913,10 +946,10 @@
         <v>9</v>
       </c>
       <c r="N4" t="s">
+        <v>85</v>
+      </c>
+      <c r="O4" t="s">
         <v>86</v>
-      </c>
-      <c r="O4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -930,7 +963,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -939,19 +972,19 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J5">
         <v>6</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L5" t="s">
         <v>23</v>
@@ -960,10 +993,10 @@
         <v>9</v>
       </c>
       <c r="N5" t="s">
+        <v>87</v>
+      </c>
+      <c r="O5" t="s">
         <v>88</v>
-      </c>
-      <c r="O5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -977,7 +1010,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E6" t="s">
         <v>28</v>
@@ -986,19 +1019,19 @@
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J6">
         <v>6</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L6" t="s">
         <v>30</v>
@@ -1007,10 +1040,10 @@
         <v>31</v>
       </c>
       <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
         <v>80</v>
-      </c>
-      <c r="O6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -1021,137 +1054,184 @@
         <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" t="s">
         <v>38</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J7">
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" t="s">
         <v>9</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
         <v>43</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" t="s">
-        <v>44</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" t="s">
         <v>76</v>
-      </c>
-      <c r="I8" t="s">
-        <v>77</v>
       </c>
       <c r="J8">
         <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M8" t="s">
         <v>9</v>
       </c>
       <c r="N8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
         <v>46</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>47</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>49</v>
       </c>
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J9">
         <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L9" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" t="s">
         <v>51</v>
       </c>
-      <c r="M9" t="s">
-        <v>52</v>
-      </c>
       <c r="N9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>91</v>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" t="s">
+        <v>111</v>
+      </c>
+      <c r="O10" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1170,6 +1250,8 @@
     <hyperlink ref="D9" r:id="rId12" xr:uid="{699E65F7-54AF-5445-BBA2-CA3429208577}"/>
     <hyperlink ref="D8" r:id="rId13" xr:uid="{7406FDF9-A9F3-6B4E-ADAF-81CB163E94D8}"/>
     <hyperlink ref="D7" r:id="rId14" xr:uid="{0155EACC-5915-2446-9A96-04B353907789}"/>
+    <hyperlink ref="D10" r:id="rId15" xr:uid="{41E6F408-A699-6F44-A8F5-6AA27CD5D04E}"/>
+    <hyperlink ref="C10" r:id="rId16" xr:uid="{8C215D62-850F-8F4B-8029-2497AB6F5D92}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dex_parameters.xlsx
+++ b/dex_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/new/PycharmProjects/BuyTokenOnDex/v1.0.2/buyTokenOnDex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D9761D-6F08-6948-A723-35A21ED19BB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127224CC-BC74-D546-855B-1B48909386BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{88565959-7D13-C549-BFB5-A27F108CA62F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{88565959-7D13-C549-BFB5-A27F108CA62F}"/>
   </bookViews>
   <sheets>
     <sheet name="dex_parameters" sheetId="1" r:id="rId1"/>
@@ -739,10 +739,10 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/dex_parameters.xlsx
+++ b/dex_parameters.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/new/PycharmProjects/BuyTokenOnDex/v1.0.2/buyTokenOnDex/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/new/PycharmProjects/BuyTokenOnDex/v1.0.3/buyTokenOnDex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127224CC-BC74-D546-855B-1B48909386BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE3E3A5-EE6E-864D-9E11-58441DF32718}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{88565959-7D13-C549-BFB5-A27F108CA62F}"/>
   </bookViews>
@@ -739,10 +739,10 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/dex_parameters.xlsx
+++ b/dex_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/new/PycharmProjects/BuyTokenOnDex/v1.0.3/buyTokenOnDex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE3E3A5-EE6E-864D-9E11-58441DF32718}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B74F6D3-0CA9-D947-95AE-C50221258F7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{88565959-7D13-C549-BFB5-A27F108CA62F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{88565959-7D13-C549-BFB5-A27F108CA62F}"/>
   </bookViews>
   <sheets>
     <sheet name="dex_parameters" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="117">
   <si>
     <t>Dex</t>
   </si>
@@ -373,6 +373,15 @@
   </si>
   <si>
     <t>0xDeadDeAddeAddEAddeadDEaDDEAdDeaDDeAD0000</t>
+  </si>
+  <si>
+    <t>cronaswap</t>
+  </si>
+  <si>
+    <t>0xcd7d16fB918511BF7269eC4f48d61D79Fb26f918</t>
+  </si>
+  <si>
+    <t>0x73A48f8f521EB31c55c0e1274dB0898dE599Cb11</t>
   </si>
 </sst>
 </file>
@@ -736,13 +745,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88998168-CC66-D04F-A4D5-FDD2D1EEBC84}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1234,6 +1243,53 @@
         <v>112</v>
       </c>
     </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{E898E09C-FA3E-9941-ACF9-7900EDA44433}"/>
@@ -1252,6 +1308,7 @@
     <hyperlink ref="D7" r:id="rId14" xr:uid="{0155EACC-5915-2446-9A96-04B353907789}"/>
     <hyperlink ref="D10" r:id="rId15" xr:uid="{41E6F408-A699-6F44-A8F5-6AA27CD5D04E}"/>
     <hyperlink ref="C10" r:id="rId16" xr:uid="{8C215D62-850F-8F4B-8029-2497AB6F5D92}"/>
+    <hyperlink ref="D11" r:id="rId17" xr:uid="{02619740-6D39-A741-90B4-3A5345C4F14D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dex_parameters.xlsx
+++ b/dex_parameters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/new/PycharmProjects/BuyTokenOnDex/v1.0.3/buyTokenOnDex/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/new/Desktop/BuyTokenOnDex/project_env/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B74F6D3-0CA9-D947-95AE-C50221258F7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC0CFBB-CDA8-4446-8922-DB8094A33C46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{88565959-7D13-C549-BFB5-A27F108CA62F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{88565959-7D13-C549-BFB5-A27F108CA62F}"/>
   </bookViews>
   <sheets>
     <sheet name="dex_parameters" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="139">
   <si>
     <t>Dex</t>
   </si>
@@ -111,9 +111,6 @@
     <t>moonriver</t>
   </si>
   <si>
-    <t>https://rpc.ftm.tools</t>
-  </si>
-  <si>
     <t>https://rpc.moonriver.moonbeam.network</t>
   </si>
   <si>
@@ -312,9 +309,6 @@
     <t>[{"inputs":[{"internalType":"address","name":"_feeToSetter","type":"address"}],"payable":false,"stateMutability":"nonpayable","type":"constructor"},{"anonymous":false,"inputs":[{"indexed":true,"internalType":"address","name":"token0","type":"address"},{"indexed":true,"internalType":"address","name":"token1","type":"address"},{"indexed":false,"internalType":"address","name":"pair","type":"address"},{"indexed":false,"internalType":"uint256","name":"","type":"uint256"}],"name":"PairCreated","type":"event"},{"constant":true,"inputs":[{"internalType":"uint256","name":"","type":"uint256"}],"name":"allPairs","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"allPairsLength","outputs":[{"internalType":"uint256","name":"","type":"uint256"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"tokenA","type":"address"},{"internalType":"address","name":"tokenB","type":"address"}],"name":"createPair","outputs":[{"internalType":"address","name":"pair","type":"address"}],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":true,"inputs":[],"name":"feeTo","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[],"name":"feeToSetter","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":true,"inputs":[{"internalType":"address","name":"","type":"address"},{"internalType":"address","name":"","type":"address"}],"name":"getPair","outputs":[{"internalType":"address","name":"","type":"address"}],"payable":false,"stateMutability":"view","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_feeTo","type":"address"}],"name":"setFeeTo","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"},{"constant":false,"inputs":[{"internalType":"address","name":"_feeToSetter","type":"address"}],"name":"setFeeToSetter","outputs":[],"payable":false,"stateMutability":"nonpayable","type":"function"}]</t>
   </si>
   <si>
-    <t>0x5C69bEe701ef814a2B6a3EDD4B1652CB9cc5aA6f</t>
-  </si>
-  <si>
     <t>Explorer</t>
   </si>
   <si>
@@ -339,49 +333,121 @@
     <t>https://polygonscan.com/</t>
   </si>
   <si>
+    <t>thetys</t>
+  </si>
+  <si>
+    <t>metis</t>
+  </si>
+  <si>
+    <t>https://andromeda-explorer.metis.io/</t>
+  </si>
+  <si>
+    <t>https://andromeda.metis.io/?owner=1088</t>
+  </si>
+  <si>
+    <t>[{"type":"event","name":"Approval","inputs":[{"type":"address","name":"src","internalType":"address","indexed":true},{"type":"address","name":"guy","internalType":"address","indexed":true},{"type":"uint256","name":"wad","internalType":"uint256","indexed":false}],"anonymous":false},{"type":"event","name":"Deposit","inputs":[{"type":"address","name":"dst","internalType":"address","indexed":true},{"type":"uint256","name":"wad","internalType":"uint256","indexed":false}],"anonymous":false},{"type":"event","name":"Transfer","inputs":[{"type":"address","name":"src","internalType":"address","indexed":true},{"type":"address","name":"dst","internalType":"address","indexed":true},{"type":"uint256","name":"wad","internalType":"uint256","indexed":false}],"anonymous":false},{"type":"event","name":"Withdrawal","inputs":[{"type":"address","name":"src","internalType":"address","indexed":true},{"type":"uint256","name":"wad","internalType":"uint256","indexed":false}],"anonymous":false},{"type":"function","stateMutability":"view","outputs":[{"type":"uint256","name":"","internalType":"uint256"}],"name":"allowance","inputs":[{"type":"address","name":"","internalType":"address"},{"type":"address","name":"","internalType":"address"}]},{"type":"function","stateMutability":"nonpayable","outputs":[{"type":"bool","name":"","internalType":"bool"}],"name":"approve","inputs":[{"type":"address","name":"guy","internalType":"address"},{"type":"uint256","name":"wad","internalType":"uint256"}]},{"type":"function","stateMutability":"view","outputs":[{"type":"uint256","name":"","internalType":"uint256"}],"name":"balanceOf","inputs":[{"type":"address","name":"","internalType":"address"}]},{"type":"function","stateMutability":"view","outputs":[{"type":"uint8","name":"","internalType":"uint8"}],"name":"decimals","inputs":[]},{"type":"function","stateMutability":"payable","outputs":[],"name":"deposit","inputs":[]},{"type":"function","stateMutability":"view","outputs":[{"type":"string","name":"","internalType":"string"}],"name":"name","inputs":[]},{"type":"function","stateMutability":"view","outputs":[{"type":"string","name":"","internalType":"string"}],"name":"symbol","inputs":[]},{"type":"function","stateMutability":"view","outputs":[{"type":"uint256","name":"","internalType":"uint256"}],"name":"totalSupply","inputs":[]},{"type":"function","stateMutability":"nonpayable","outputs":[{"type":"bool","name":"","internalType":"bool"}],"name":"transfer","inputs":[{"type":"address","name":"dst","internalType":"address"},{"type":"uint256","name":"wad","internalType":"uint256"}]},{"type":"function","stateMutability":"nonpayable","outputs":[{"type":"bool","name":"","internalType":"bool"}],"name":"transferFrom","inputs":[{"type":"address","name":"src","internalType":"address"},{"type":"address","name":"dst","internalType":"address"},{"type":"uint256","name":"wad","internalType":"uint256"}]},{"type":"function","stateMutability":"nonpayable","outputs":[],"name":"withdraw","inputs":[{"type":"uint256","name":"wad","internalType":"uint256"}]},{"type":"receive","stateMutability":"payable"}]</t>
+  </si>
+  <si>
+    <t>0xEA32A96608495e54156Ae48931A7c20f0dcc1a21</t>
+  </si>
+  <si>
+    <t>m.USDC</t>
+  </si>
+  <si>
+    <t>0x81b9FA50D5f5155Ee17817C21702C3AE4780AD09</t>
+  </si>
+  <si>
+    <t>0x2CdFB20205701FF01689461610C9F321D1d00F80</t>
+  </si>
+  <si>
+    <t>[{"type":"constructor","stateMutability":"nonpayable","inputs":[{"type":"address","name":"_feeToSetter","internalType":"address"}]},{"type":"event","name":"PairCreated","inputs":[{"type":"address","name":"token0","internalType":"address","indexed":true},{"type":"address","name":"token1","internalType":"address","indexed":true},{"type":"address","name":"pair","internalType":"address","indexed":false},{"type":"uint256","name":"","internalType":"uint256","indexed":false}],"anonymous":false},{"type":"function","stateMutability":"view","outputs":[{"type":"bytes32","name":"","internalType":"bytes32"}],"name":"INIT_CODE_PAIR_HASH","inputs":[]},{"type":"function","stateMutability":"view","outputs":[{"type":"address","name":"","internalType":"address"}],"name":"allPairs","inputs":[{"type":"uint256","name":"","internalType":"uint256"}]},{"type":"function","stateMutability":"view","outputs":[{"type":"uint256","name":"","internalType":"uint256"}],"name":"allPairsLength","inputs":[]},{"type":"function","stateMutability":"nonpayable","outputs":[{"type":"address","name":"pair","internalType":"address"}],"name":"createPair","inputs":[{"type":"address","name":"tokenA","internalType":"address"},{"type":"address","name":"tokenB","internalType":"address"}]},{"type":"function","stateMutability":"view","outputs":[{"type":"address","name":"","internalType":"address"}],"name":"feeTo","inputs":[]},{"type":"function","stateMutability":"view","outputs":[{"type":"address","name":"","internalType":"address"}],"name":"feeToSetter","inputs":[]},{"type":"function","stateMutability":"view","outputs":[{"type":"address","name":"","internalType":"address"}],"name":"getPair","inputs":[{"type":"address","name":"","internalType":"address"},{"type":"address","name":"","internalType":"address"}]},{"type":"function","stateMutability":"pure","outputs":[{"type":"bytes32","name":"","internalType":"bytes32"}],"name":"pairCodeHash","inputs":[]},{"type":"function","stateMutability":"nonpayable","outputs":[],"name":"setFeeTo","inputs":[{"type":"address","name":"_feeTo","internalType":"address"}]},{"type":"function","stateMutability":"nonpayable","outputs":[],"name":"setFeeToSetter","inputs":[{"type":"address","name":"_feeToSetter","internalType":"address"}]}]</t>
+  </si>
+  <si>
+    <t>0xDeadDeAddeAddEAddeadDEaDDEAdDeaDDeAD0000</t>
+  </si>
+  <si>
+    <t>cronaswap</t>
+  </si>
+  <si>
+    <t>0xcd7d16fB918511BF7269eC4f48d61D79Fb26f918</t>
+  </si>
+  <si>
+    <t>0x73A48f8f521EB31c55c0e1274dB0898dE599Cb11</t>
+  </si>
+  <si>
+    <t>0x5757371414417b8C6CAad45bAeF941aBc7d3Ab32</t>
+  </si>
+  <si>
+    <t>0x1b02dA8Cb0d097eB8D57A175b88c7D8b47997506</t>
+  </si>
+  <si>
+    <t>0xc35DADB65012eC5796536bD9864eD8773aBc74C4</t>
+  </si>
+  <si>
+    <t>sushiswap polygon</t>
+  </si>
+  <si>
+    <t>netswap</t>
+  </si>
+  <si>
+    <t>0x1E876cCe41B7b844FDe09E38Fa1cf00f213bFf56</t>
+  </si>
+  <si>
+    <t>[{"type":"constructor","stateMutability":"nonpayable","inputs":[{"type":"address","name":"_factory","internalType":"address"},{"type":"address","name":"_Metis","internalType":"address"}]},{"type":"event","name":"OwnershipTransferred","inputs":[{"type":"address","name":"previousOwner","internalType":"address","indexed":true},{"type":"address","name":"newOwner","internalType":"address","indexed":true}],"anonymous":false},{"type":"function","stateMutability":"view","outputs":[{"type":"address","name":"","internalType":"address"}],"name":"Metis","inputs":[]},{"type":"function","stateMutability":"nonpayable","outputs":[{"type":"uint256","name":"amountA","internalType":"uint256"},{"type":"uint256","name":"amountB","internalType":"uint256"},{"type":"uint256","name":"liquidity","internalType":"uint256"}],"name":"addLiquidity","inputs":[{"type":"address","name":"tokenA","internalType":"address"},{"type":"address","name":"tokenB","internalType":"address"},{"type":"uint256","name":"amountADesired","internalType":"uint256"},{"type":"uint256","name":"amountBDesired","internalType":"uint256"},{"type":"uint256","name":"amountAMin","internalType":"uint256"},{"type":"uint256","name":"amountBMin","internalType":"uint256"},{"type":"address","name":"to","internalType":"address"},{"type":"uint256","name":"deadline","internalType":"uint256"}]},{"type":"function","stateMutability":"payable","outputs":[{"type":"uint256","name":"amountToken","internalType":"uint256"},{"type":"uint256","name":"amountMetis","internalType":"uint256"},{"type":"uint256","name":"liquidity","internalType":"uint256"}],"name":"addLiquidityMetis","inputs":[{"type":"address","name":"token","internalType":"address"},{"type":"uint256","name":"amountTokenDesired","internalType":"uint256"},{"type":"uint256","name":"amountTokenMin","internalType":"uint256"},{"type":"uint256","name":"amountMetisMin","internalType":"uint256"},{"type":"address","name":"to","internalType":"address"},{"type":"uint256","name":"deadline","internalType":"uint256"}]},{"type":"function","stateMutability":"view","outputs":[{"type":"address","name":"","internalType":"address"}],"name":"factory","inputs":[]},{"type":"function","stateMutability":"view","outputs":[{"type":"uint256","name":"amountIn","internalType":"uint256"}],"name":"getAmountIn","inputs":[{"type":"uint256","name":"amountOut","internalType":"uint256"},{"type":"uint256","name":"reserveIn","internalType":"uint256"},{"type":"uint256","name":"reserveOut","internalType":"uint256"}]},{"type":"function","stateMutability":"view","outputs":[{"type":"uint256","name":"amountOut","internalType":"uint256"}],"name":"getAmountOut","inputs":[{"type":"uint256","name":"amountIn","internalType":"uint256"},{"type":"uint256","name":"reserveIn","internalType":"uint256"},{"type":"uint256","name":"reserveOut","internalType":"uint256"}]},{"type":"function","stateMutability":"view","outputs":[{"type":"uint256[]","name":"amounts","internalType":"uint256[]"}],"name":"getAmountsIn","inputs":[{"type":"uint256","name":"amountOut","internalType":"uint256"},{"type":"address[]","name":"path","internalType":"address[]"}]},{"type":"function","stateMutability":"view","outputs":[{"type":"uint256[]","name":"amounts","internalType":"uint256[]"}],"name":"getAmountsOut","inputs":[{"type":"uint256","name":"amountIn","internalType":"uint256"},{"type":"address[]","name":"path","internalType":"address[]"}]},{"type":"function","stateMutability":"view","outputs":[{"type":"bool","name":"","internalType":"bool"}],"name":"isOwner","inputs":[{"type":"address","name":"account","internalType":"address"}]},{"type":"function","stateMutability":"view","outputs":[{"type":"address","name":"","internalType":"address"}],"name":"owner","inputs":[]},{"type":"function","stateMutability":"pure","outputs":[{"type":"uint256","name":"amountB","internalType":"uint256"}],"name":"quote","inputs":[{"type":"uint256","name":"amountA","internalType":"uint256"},{"type":"uint256","name":"reserveA","internalType":"uint256"},{"type":"uint256","name":"reserveB","internalType":"uint256"}]},{"type":"function","stateMutability":"nonpayable","outputs":[{"type":"uint256","name":"amountA","internalType":"uint256"},{"type":"uint256","name":"amountB","internalType":"uint256"}],"name":"removeLiquidity","inputs":[{"type":"address","name":"tokenA","internalType":"address"},{"type":"address","name":"tokenB","internalType":"address"},{"type":"uint256","name":"liquidity","internalType":"uint256"},{"type":"uint256","name":"amountAMin","internalType":"uint256"},{"type":"uint256","name":"amountBMin","internalType":"uint256"},{"type":"address","name":"to","internalType":"address"},{"type":"uint256","name":"deadline","internalType":"uint256"}]},{"type":"function","stateMutability":"nonpayable","outputs":[{"type":"uint256","name":"amountToken","internalType":"uint256"},{"type":"uint256","name":"amountMetis","internalType":"uint256"}],"name":"removeLiquidityMetis","inputs":[{"type":"address","name":"token","internalType":"address"},{"type":"uint256","name":"liquidity","internalType":"uint256"},{"type":"uint256","name":"amountTokenMin","internalType":"uint256"},{"type":"uint256","name":"amountMetisMin","internalType":"uint256"},{"type":"address","name":"to","internalType":"address"},{"type":"uint256","name":"deadline","internalType":"uint256"}]},{"type":"function","stateMutability":"nonpayable","outputs":[{"type":"uint256","name":"amountMetis","internalType":"uint256"}],"name":"removeLiquidityMetisSupportingFeeOnTransferTokens","inputs":[{"type":"address","name":"token","internalType":"address"},{"type":"uint256","name":"liquidity","internalType":"uint256"},{"type":"uint256","name":"amountTokenMin","internalType":"uint256"},{"type":"uint256","name":"amountMetisMin","internalType":"uint256"},{"type":"address","name":"to","internalType":"address"},{"type":"uint256","name":"deadline","internalType":"uint256"}]},{"type":"function","stateMutability":"nonpayable","outputs":[{"type":"uint256","name":"amountToken","internalType":"uint256"},{"type":"uint256","name":"amountMetis","internalType":"uint256"}],"name":"removeLiquidityMetisWithPermit","inputs":[{"type":"address","name":"token","internalType":"address"},{"type":"uint256","name":"liquidity","internalType":"uint256"},{"type":"uint256","name":"amountTokenMin","internalType":"uint256"},{"type":"uint256","name":"amountMetisMin","internalType":"uint256"},{"type":"address","name":"to","internalType":"address"},{"type":"uint256","name":"deadline","internalType":"uint256"},{"type":"bool","name":"approveMax","internalType":"bool"},{"type":"uint8","name":"v","internalType":"uint8"},{"type":"bytes32","name":"r","internalType":"bytes32"},{"type":"bytes32","name":"s","internalType":"bytes32"}]},{"type":"function","stateMutability":"nonpayable","outputs":[{"type":"uint256","name":"amountMetis","internalType":"uint256"}],"name":"removeLiquidityMetisWithPermitSupportingFeeOnTransferTokens","inputs":[{"type":"address","name":"token","internalType":"address"},{"type":"uint256","name":"liquidity","internalType":"uint256"},{"type":"uint256","name":"amountTokenMin","internalType":"uint256"},{"type":"uint256","name":"amountMetisMin","internalType":"uint256"},{"type":"address","name":"to","internalType":"address"},{"type":"uint256","name":"deadline","internalType":"uint256"},{"type":"bool","name":"approveMax","internalType":"bool"},{"type":"uint8","name":"v","internalType":"uint8"},{"type":"bytes32","name":"r","internalType":"bytes32"},{"type":"bytes32","name":"s","internalType":"bytes32"}]},{"type":"function","stateMutability":"nonpayable","outputs":[{"type":"uint256","name":"amountA","internalType":"uint256"},{"type":"uint256","name":"amountB","internalType":"uint256"}],"name":"removeLiquidityWithPermit","inputs":[{"type":"address","name":"tokenA","internalType":"address"},{"type":"address","name":"tokenB","internalType":"address"},{"type":"uint256","name":"liquidity","internalType":"uint256"},{"type":"uint256","name":"amountAMin","internalType":"uint256"},{"type":"uint256","name":"amountBMin","internalType":"uint256"},{"type":"address","name":"to","internalType":"address"},{"type":"uint256","name":"deadline","internalType":"uint256"},{"type":"bool","name":"approveMax","internalType":"bool"},{"type":"uint8","name":"v","internalType":"uint8"},{"type":"bytes32","name":"r","internalType":"bytes32"},{"type":"bytes32","name":"s","internalType":"bytes32"}]},{"type":"function","stateMutability":"nonpayable","outputs":[],"name":"renounceOwnership","inputs":[]},{"type":"function","stateMutability":"nonpayable","outputs":[],"name":"setSwapMining","inputs":[{"type":"address","name":"_swapMininng","internalType":"address"}]},{"type":"function","stateMutability":"payable","outputs":[{"type":"uint256[]","name":"amounts","internalType":"uint256[]"}],"name":"swapExactMetisForTokens","inputs":[{"type":"uint256","name":"amountOutMin","internalType":"uint256"},{"type":"address[]","name":"path","internalType":"address[]"},{"type":"address","name":"to","internalType":"address"},{"type":"uint256","name":"deadline","internalType":"uint256"}]},{"type":"function","stateMutability":"payable","outputs":[],"name":"swapExactMetisForTokensSupportingFeeOnTransferTokens","inputs":[{"type":"uint256","name":"amountOutMin","internalType":"uint256"},{"type":"address[]","name":"path","internalType":"address[]"},{"type":"address","name":"to","internalType":"address"},{"type":"uint256","name":"deadline","internalType":"uint256"}]},{"type":"function","stateMutability":"nonpayable","outputs":[{"type":"uint256[]","name":"amounts","internalType":"uint256[]"}],"name":"swapExactTokensForMetis","inputs":[{"type":"uint256","name":"amountIn","internalType":"uint256"},{"type":"uint256","name":"amountOutMin","internalType":"uint256"},{"type":"address[]","name":"path","internalType":"address[]"},{"type":"address","name":"to","internalType":"address"},{"type":"uint256","name":"deadline","internalType":"uint256"}]},{"type":"function","stateMutability":"nonpayable","outputs":[],"name":"swapExactTokensForMetisSupportingFeeOnTransferTokens","inputs":[{"type":"uint256","name":"amountIn","internalType":"uint256"},{"type":"uint256","name":"amountOutMin","internalType":"uint256"},{"type":"address[]","name":"path","internalType":"address[]"},{"type":"address","name":"to","internalType":"address"},{"type":"uint256","name":"deadline","internalType":"uint256"}]},{"type":"function","stateMutability":"nonpayable","outputs":[{"type":"uint256[]","name":"amounts","internalType":"uint256[]"}],"name":"swapExactTokensForTokens","inputs":[{"type":"uint256","name":"amountIn","internalType":"uint256"},{"type":"uint256","name":"amountOutMin","internalType":"uint256"},{"type":"address[]","name":"path","internalType":"address[]"},{"type":"address","name":"to","internalType":"address"},{"type":"uint256","name":"deadline","internalType":"uint256"}]},{"type":"function","stateMutability":"nonpayable","outputs":[],"name":"swapExactTokensForTokensSupportingFeeOnTransferTokens","inputs":[{"type":"uint256","name":"amountIn","internalType":"uint256"},{"type":"uint256","name":"amountOutMin","internalType":"uint256"},{"type":"address[]","name":"path","internalType":"address[]"},{"type":"address","name":"to","internalType":"address"},{"type":"uint256","name":"deadline","internalType":"uint256"}]},{"type":"function","stateMutability":"payable","outputs":[{"type":"uint256[]","name":"amounts","internalType":"uint256[]"}],"name":"swapMetisForExactTokens","inputs":[{"type":"uint256","name":"amountOut","internalType":"uint256"},{"type":"address[]","name":"path","internalType":"address[]"},{"type":"address","name":"to","internalType":"address"},{"type":"uint256","name":"deadline","internalType":"uint256"}]},{"type":"function","stateMutability":"view","outputs":[{"type":"address","name":"","internalType":"address"}],"name":"swapMining","inputs":[]},{"type":"function","stateMutability":"nonpayable","outputs":[{"type":"uint256[]","name":"amounts","internalType":"uint256[]"}],"name":"swapTokensForExactMetis","inputs":[{"type":"uint256","name":"amountOut","internalType":"uint256"},{"type":"uint256","name":"amountInMax","internalType":"uint256"},{"type":"address[]","name":"path","internalType":"address[]"},{"type":"address","name":"to","internalType":"address"},{"type":"uint256","name":"deadline","internalType":"uint256"}]},{"type":"function","stateMutability":"nonpayable","outputs":[{"type":"uint256[]","name":"amounts","internalType":"uint256[]"}],"name":"swapTokensForExactTokens","inputs":[{"type":"uint256","name":"amountOut","internalType":"uint256"},{"type":"uint256","name":"amountInMax","internalType":"uint256"},{"type":"address[]","name":"path","internalType":"address[]"},{"type":"address","name":"to","internalType":"address"},{"type":"uint256","name":"deadline","internalType":"uint256"}]},{"type":"function","stateMutability":"nonpayable","outputs":[],"name":"transferOwnership","inputs":[{"type":"address","name":"newOwner","internalType":"address"}]},{"type":"receive","stateMutability":"payable"}]</t>
+  </si>
+  <si>
+    <t>0x70f51d68D16e8f9e418441280342BD43AC9Dff9f</t>
+  </si>
+  <si>
+    <t>[{"type":"constructor","stateMutability":"nonpayable","inputs":[{"type":"address","name":"_feeToSetter","internalType":"address"}]},{"type":"event","name":"PairCreated","inputs":[{"type":"address","name":"token0","internalType":"address","indexed":true},{"type":"address","name":"token1","internalType":"address","indexed":true},{"type":"address","name":"pair","internalType":"address","indexed":false},{"type":"uint256","name":"","internalType":"uint256","indexed":false}],"anonymous":false},{"type":"function","stateMutability":"view","outputs":[{"type":"address","name":"","internalType":"address"}],"name":"allPairs","inputs":[{"type":"uint256","name":"","internalType":"uint256"}]},{"type":"function","stateMutability":"view","outputs":[{"type":"uint256","name":"","internalType":"uint256"}],"name":"allPairsLength","inputs":[]},{"type":"function","stateMutability":"nonpayable","outputs":[{"type":"address","name":"pair","internalType":"address"}],"name":"createPair","inputs":[{"type":"address","name":"tokenA","internalType":"address"},{"type":"address","name":"tokenB","internalType":"address"}]},{"type":"function","stateMutability":"view","outputs":[{"type":"uint256","name":"","internalType":"uint256"}],"name":"feeRate","inputs":[]},{"type":"function","stateMutability":"view","outputs":[{"type":"address","name":"","internalType":"address"}],"name":"feeTo","inputs":[]},{"type":"function","stateMutability":"view","outputs":[{"type":"address","name":"","internalType":"address"}],"name":"feeToSetter","inputs":[]},{"type":"function","stateMutability":"view","outputs":[{"type":"address","name":"","internalType":"address"}],"name":"getPair","inputs":[{"type":"address","name":"","internalType":"address"},{"type":"address","name":"","internalType":"address"}]},{"type":"function","stateMutability":"view","outputs":[{"type":"uint256","name":"reserveA","internalType":"uint256"},{"type":"uint256","name":"reserveB","internalType":"uint256"}],"name":"getReserves","inputs":[{"type":"address","name":"tokenA","internalType":"address"},{"type":"address","name":"tokenB","internalType":"address"}]},{"type":"function","stateMutability":"view","outputs":[{"type":"bytes32","name":"","internalType":"bytes32"}],"name":"initCodeHash","inputs":[]},{"type":"function","stateMutability":"pure","outputs":[{"type":"bytes32","name":"","internalType":"bytes32"}],"name":"pairCodeHash","inputs":[]},{"type":"function","stateMutability":"view","outputs":[{"type":"address","name":"pair","internalType":"address"}],"name":"pairFor","inputs":[{"type":"address","name":"tokenA","internalType":"address"},{"type":"address","name":"tokenB","internalType":"address"}]},{"type":"function","stateMutability":"nonpayable","outputs":[],"name":"setFeeRate","inputs":[{"type":"uint256","name":"_feeRate","internalType":"uint256"}]},{"type":"function","stateMutability":"nonpayable","outputs":[],"name":"setFeeTo","inputs":[{"type":"address","name":"_feeTo","internalType":"address"}]},{"type":"function","stateMutability":"nonpayable","outputs":[],"name":"setFeeToSetter","inputs":[{"type":"address","name":"_feeToSetter","internalType":"address"}]},{"type":"function","stateMutability":"pure","outputs":[{"type":"address","name":"token0","internalType":"address"},{"type":"address","name":"token1","internalType":"address"}],"name":"sortTokens","inputs":[{"type":"address","name":"tokenA","internalType":"address"},{"type":"address","name":"tokenB","internalType":"address"}]}]</t>
+  </si>
+  <si>
     <t>https://polygon-rpc.com/</t>
   </si>
   <si>
-    <t>thetys</t>
-  </si>
-  <si>
-    <t>metis</t>
-  </si>
-  <si>
-    <t>https://andromeda-explorer.metis.io/</t>
-  </si>
-  <si>
-    <t>https://andromeda.metis.io/?owner=1088</t>
-  </si>
-  <si>
-    <t>[{"type":"event","name":"Approval","inputs":[{"type":"address","name":"src","internalType":"address","indexed":true},{"type":"address","name":"guy","internalType":"address","indexed":true},{"type":"uint256","name":"wad","internalType":"uint256","indexed":false}],"anonymous":false},{"type":"event","name":"Deposit","inputs":[{"type":"address","name":"dst","internalType":"address","indexed":true},{"type":"uint256","name":"wad","internalType":"uint256","indexed":false}],"anonymous":false},{"type":"event","name":"Transfer","inputs":[{"type":"address","name":"src","internalType":"address","indexed":true},{"type":"address","name":"dst","internalType":"address","indexed":true},{"type":"uint256","name":"wad","internalType":"uint256","indexed":false}],"anonymous":false},{"type":"event","name":"Withdrawal","inputs":[{"type":"address","name":"src","internalType":"address","indexed":true},{"type":"uint256","name":"wad","internalType":"uint256","indexed":false}],"anonymous":false},{"type":"function","stateMutability":"view","outputs":[{"type":"uint256","name":"","internalType":"uint256"}],"name":"allowance","inputs":[{"type":"address","name":"","internalType":"address"},{"type":"address","name":"","internalType":"address"}]},{"type":"function","stateMutability":"nonpayable","outputs":[{"type":"bool","name":"","internalType":"bool"}],"name":"approve","inputs":[{"type":"address","name":"guy","internalType":"address"},{"type":"uint256","name":"wad","internalType":"uint256"}]},{"type":"function","stateMutability":"view","outputs":[{"type":"uint256","name":"","internalType":"uint256"}],"name":"balanceOf","inputs":[{"type":"address","name":"","internalType":"address"}]},{"type":"function","stateMutability":"view","outputs":[{"type":"uint8","name":"","internalType":"uint8"}],"name":"decimals","inputs":[]},{"type":"function","stateMutability":"payable","outputs":[],"name":"deposit","inputs":[]},{"type":"function","stateMutability":"view","outputs":[{"type":"string","name":"","internalType":"string"}],"name":"name","inputs":[]},{"type":"function","stateMutability":"view","outputs":[{"type":"string","name":"","internalType":"string"}],"name":"symbol","inputs":[]},{"type":"function","stateMutability":"view","outputs":[{"type":"uint256","name":"","internalType":"uint256"}],"name":"totalSupply","inputs":[]},{"type":"function","stateMutability":"nonpayable","outputs":[{"type":"bool","name":"","internalType":"bool"}],"name":"transfer","inputs":[{"type":"address","name":"dst","internalType":"address"},{"type":"uint256","name":"wad","internalType":"uint256"}]},{"type":"function","stateMutability":"nonpayable","outputs":[{"type":"bool","name":"","internalType":"bool"}],"name":"transferFrom","inputs":[{"type":"address","name":"src","internalType":"address"},{"type":"address","name":"dst","internalType":"address"},{"type":"uint256","name":"wad","internalType":"uint256"}]},{"type":"function","stateMutability":"nonpayable","outputs":[],"name":"withdraw","inputs":[{"type":"uint256","name":"wad","internalType":"uint256"}]},{"type":"receive","stateMutability":"payable"}]</t>
-  </si>
-  <si>
-    <t>0xEA32A96608495e54156Ae48931A7c20f0dcc1a21</t>
-  </si>
-  <si>
-    <t>m.USDC</t>
-  </si>
-  <si>
-    <t>0x81b9FA50D5f5155Ee17817C21702C3AE4780AD09</t>
-  </si>
-  <si>
-    <t>0x2CdFB20205701FF01689461610C9F321D1d00F80</t>
-  </si>
-  <si>
-    <t>[{"type":"constructor","stateMutability":"nonpayable","inputs":[{"type":"address","name":"_feeToSetter","internalType":"address"}]},{"type":"event","name":"PairCreated","inputs":[{"type":"address","name":"token0","internalType":"address","indexed":true},{"type":"address","name":"token1","internalType":"address","indexed":true},{"type":"address","name":"pair","internalType":"address","indexed":false},{"type":"uint256","name":"","internalType":"uint256","indexed":false}],"anonymous":false},{"type":"function","stateMutability":"view","outputs":[{"type":"bytes32","name":"","internalType":"bytes32"}],"name":"INIT_CODE_PAIR_HASH","inputs":[]},{"type":"function","stateMutability":"view","outputs":[{"type":"address","name":"","internalType":"address"}],"name":"allPairs","inputs":[{"type":"uint256","name":"","internalType":"uint256"}]},{"type":"function","stateMutability":"view","outputs":[{"type":"uint256","name":"","internalType":"uint256"}],"name":"allPairsLength","inputs":[]},{"type":"function","stateMutability":"nonpayable","outputs":[{"type":"address","name":"pair","internalType":"address"}],"name":"createPair","inputs":[{"type":"address","name":"tokenA","internalType":"address"},{"type":"address","name":"tokenB","internalType":"address"}]},{"type":"function","stateMutability":"view","outputs":[{"type":"address","name":"","internalType":"address"}],"name":"feeTo","inputs":[]},{"type":"function","stateMutability":"view","outputs":[{"type":"address","name":"","internalType":"address"}],"name":"feeToSetter","inputs":[]},{"type":"function","stateMutability":"view","outputs":[{"type":"address","name":"","internalType":"address"}],"name":"getPair","inputs":[{"type":"address","name":"","internalType":"address"},{"type":"address","name":"","internalType":"address"}]},{"type":"function","stateMutability":"pure","outputs":[{"type":"bytes32","name":"","internalType":"bytes32"}],"name":"pairCodeHash","inputs":[]},{"type":"function","stateMutability":"nonpayable","outputs":[],"name":"setFeeTo","inputs":[{"type":"address","name":"_feeTo","internalType":"address"}]},{"type":"function","stateMutability":"nonpayable","outputs":[],"name":"setFeeToSetter","inputs":[{"type":"address","name":"_feeToSetter","internalType":"address"}]}]</t>
-  </si>
-  <si>
-    <t>0xDeadDeAddeAddEAddeadDEaDDEAdDeaDDeAD0000</t>
-  </si>
-  <si>
-    <t>cronaswap</t>
-  </si>
-  <si>
-    <t>0xcd7d16fB918511BF7269eC4f48d61D79Fb26f918</t>
-  </si>
-  <si>
-    <t>0x73A48f8f521EB31c55c0e1274dB0898dE599Cb11</t>
+    <t>solarflare</t>
+  </si>
+  <si>
+    <t>moonbeam</t>
+  </si>
+  <si>
+    <t>https://rpc.api.moonbeam.network</t>
+  </si>
+  <si>
+    <t>https://blockscout.moonbeam.network/</t>
+  </si>
+  <si>
+    <t>0xAcc15dC74880C9944775448304B263D191c6077F</t>
+  </si>
+  <si>
+    <t>[{"type":"function","stateMutability":"view","payable":false,"outputs":[{"type":"string","name":""}],"name":"name","inputs":[],"constant":true},{"type":"function","stateMutability":"nonpayable","payable":false,"outputs":[{"type":"bool","name":""}],"name":"approve","inputs":[{"type":"address","name":"guy"},{"type":"uint256","name":"wad"}],"constant":false},{"type":"function","stateMutability":"view","payable":false,"outputs":[{"type":"uint256","name":""}],"name":"totalSupply","inputs":[],"constant":true},{"type":"function","stateMutability":"nonpayable","payable":false,"outputs":[{"type":"bool","name":""}],"name":"transferFrom","inputs":[{"type":"address","name":"src"},{"type":"address","name":"dst"},{"type":"uint256","name":"wad"}],"constant":false},{"type":"function","stateMutability":"nonpayable","payable":false,"outputs":[],"name":"withdraw","inputs":[{"type":"uint256","name":"wad"}],"constant":false},{"type":"function","stateMutability":"view","payable":false,"outputs":[{"type":"uint8","name":""}],"name":"decimals","inputs":[],"constant":true},{"type":"function","stateMutability":"view","payable":false,"outputs":[{"type":"uint256","name":""}],"name":"balanceOf","inputs":[{"type":"address","name":""}],"constant":true},{"type":"function","stateMutability":"view","payable":false,"outputs":[{"type":"string","name":""}],"name":"symbol","inputs":[],"constant":true},{"type":"function","stateMutability":"nonpayable","payable":false,"outputs":[{"type":"bool","name":""}],"name":"transfer","inputs":[{"type":"address","name":"dst"},{"type":"uint256","name":"wad"}],"constant":false},{"type":"function","stateMutability":"payable","payable":true,"outputs":[],"name":"deposit","inputs":[],"constant":false},{"type":"function","stateMutability":"view","payable":false,"outputs":[{"type":"uint256","name":""}],"name":"allowance","inputs":[{"type":"address","name":""},{"type":"address","name":""}],"constant":true},{"type":"fallback","stateMutability":"payable","payable":true},{"type":"event","name":"Approval","inputs":[{"type":"address","name":"src","indexed":true},{"type":"address","name":"guy","indexed":true},{"type":"uint256","name":"wad","indexed":false}],"anonymous":false},{"type":"event","name":"Transfer","inputs":[{"type":"address","name":"src","indexed":true},{"type":"address","name":"dst","indexed":true},{"type":"uint256","name":"wad","indexed":false}],"anonymous":false},{"type":"event","name":"Deposit","inputs":[{"type":"address","name":"dst","indexed":true},{"type":"uint256","name":"wad","indexed":false}],"anonymous":false},{"type":"event","name":"Withdrawal","inputs":[{"type":"address","name":"src","indexed":true},{"type":"uint256","name":"wad","indexed":false}],"anonymous":false}]</t>
+  </si>
+  <si>
+    <t>0x8f552a71EFE5eeFc207Bf75485b356A0b3f01eC9</t>
+  </si>
+  <si>
+    <t>0xd3B02Ff30c218c7f7756BA14bcA075Bf7C2C951e</t>
+  </si>
+  <si>
+    <t>[{"type":"constructor","stateMutability":"nonpayable","inputs":[{"type":"address","name":"_feeToSetter","internalType":"address"}]},{"type":"event","name":"PairCreated","inputs":[{"type":"address","name":"token0","internalType":"address","indexed":true},{"type":"address","name":"token1","internalType":"address","indexed":true},{"type":"address","name":"pair","internalType":"address","indexed":false},{"type":"uint256","name":"","internalType":"uint256","indexed":false}],"anonymous":false},{"type":"function","stateMutability":"view","outputs":[{"type":"bytes32","name":"","internalType":"bytes32"}],"name":"INIT_CODE_PAIR_HASH","inputs":[]},{"type":"function","stateMutability":"view","outputs":[{"type":"address","name":"","internalType":"address"}],"name":"allPairs","inputs":[{"type":"uint256","name":"","internalType":"uint256"}]},{"type":"function","stateMutability":"view","outputs":[{"type":"uint256","name":"","internalType":"uint256"}],"name":"allPairsLength","inputs":[]},{"type":"function","stateMutability":"nonpayable","outputs":[{"type":"address","name":"pair","internalType":"address"}],"name":"createPair","inputs":[{"type":"address","name":"tokenA","internalType":"address"},{"type":"address","name":"tokenB","internalType":"address"}]},{"type":"function","stateMutability":"view","outputs":[{"type":"address","name":"","internalType":"address"}],"name":"feeTo","inputs":[]},{"type":"function","stateMutability":"view","outputs":[{"type":"address","name":"","internalType":"address"}],"name":"feeToSetter","inputs":[]},{"type":"function","stateMutability":"view","outputs":[{"type":"address","name":"","internalType":"address"}],"name":"getPair","inputs":[{"type":"address","name":"","internalType":"address"},{"type":"address","name":"","internalType":"address"}]},{"type":"function","stateMutability":"view","outputs":[{"type":"address","name":"","internalType":"address"}],"name":"migrator","inputs":[]},{"type":"function","stateMutability":"nonpayable","outputs":[],"name":"setFeeTo","inputs":[{"type":"address","name":"_feeTo","internalType":"address"}]},{"type":"function","stateMutability":"nonpayable","outputs":[],"name":"setFeeToSetter","inputs":[{"type":"address","name":"_feeToSetter","internalType":"address"}]},{"type":"function","stateMutability":"nonpayable","outputs":[],"name":"setMigrator","inputs":[{"type":"address","name":"_migrator","internalType":"address"}]}]</t>
+  </si>
+  <si>
+    <t>0x19B85ae92947E0725d5265fFB3389e7E4F191FDa</t>
+  </si>
+  <si>
+    <t>https://rpc.atlascloud.network/04f5cbf6-753f-11ec-a14f-590dee8dcfea</t>
+  </si>
+  <si>
+    <t>stellaswap</t>
+  </si>
+  <si>
+    <t>0xd0A01ec574D1fC6652eDF79cb2F880fd47D34Ab1</t>
+  </si>
+  <si>
+    <t>0x68A384D826D3678f78BB9FB1533c7E9577dACc0E</t>
+  </si>
+  <si>
+    <t>0x818ec0A7Fe18Ff94269904fCED6AE3DaE6d6dC0b</t>
   </si>
 </sst>
 </file>
@@ -426,10 +492,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -745,13 +812,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88998168-CC66-D04F-A4D5-FDD2D1EEBC84}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -768,7 +835,7 @@
     <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="255.83203125" customWidth="1"/>
     <col min="12" max="12" width="44.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="255.6640625" customWidth="1"/>
     <col min="14" max="14" width="44.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -784,40 +851,40 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" t="s">
-        <v>35</v>
-      </c>
       <c r="N1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" t="s">
         <v>77</v>
-      </c>
-      <c r="O1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -831,7 +898,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -840,19 +907,19 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" t="s">
         <v>70</v>
-      </c>
-      <c r="I2" t="s">
-        <v>71</v>
       </c>
       <c r="J2">
         <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L2" t="s">
         <v>8</v>
@@ -861,10 +928,10 @@
         <v>9</v>
       </c>
       <c r="N2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -878,7 +945,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -887,19 +954,19 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" t="s">
         <v>65</v>
-      </c>
-      <c r="I3" t="s">
-        <v>66</v>
       </c>
       <c r="J3">
         <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s">
         <v>15</v>
@@ -908,10 +975,10 @@
         <v>16</v>
       </c>
       <c r="N3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O3" t="s">
         <v>83</v>
-      </c>
-      <c r="O3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -922,10 +989,10 @@
         <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -934,19 +1001,19 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J4">
         <v>6</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
         <v>21</v>
@@ -955,10 +1022,10 @@
         <v>9</v>
       </c>
       <c r="N4" t="s">
+        <v>84</v>
+      </c>
+      <c r="O4" t="s">
         <v>85</v>
-      </c>
-      <c r="O4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -969,10 +1036,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -981,19 +1048,19 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J5">
         <v>6</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
         <v>23</v>
@@ -1002,10 +1069,10 @@
         <v>9</v>
       </c>
       <c r="N5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" t="s">
         <v>87</v>
-      </c>
-      <c r="O5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -1016,278 +1083,466 @@
         <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J6">
         <v>6</v>
       </c>
       <c r="K6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" t="s">
         <v>30</v>
       </c>
-      <c r="M6" t="s">
-        <v>31</v>
-      </c>
       <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
         <v>79</v>
-      </c>
-      <c r="O6" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" t="s">
         <v>37</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J7">
         <v>6</v>
       </c>
-      <c r="K7" t="s">
-        <v>69</v>
+      <c r="K7" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="L7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M7" t="s">
         <v>9</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
       </c>
       <c r="G8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" t="s">
         <v>64</v>
       </c>
-      <c r="H8" t="s">
-        <v>75</v>
-      </c>
       <c r="I8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J8">
-        <v>18</v>
-      </c>
-      <c r="K8" t="s">
-        <v>63</v>
+        <v>6</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="L8" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="M8" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>91</v>
+      <c r="N8" t="s">
+        <v>116</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M9" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>106</v>
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="J10">
         <v>6</v>
       </c>
       <c r="K10" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="M10" t="s">
-        <v>51</v>
-      </c>
-      <c r="N10" t="s">
-        <v>111</v>
-      </c>
-      <c r="O10" t="s">
-        <v>112</v>
+        <v>50</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
+        <v>101</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="J11">
         <v>6</v>
       </c>
       <c r="K11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="M11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="O11" t="s">
-        <v>90</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12">
+        <v>6</v>
+      </c>
+      <c r="K12" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13">
+        <v>6</v>
+      </c>
+      <c r="K13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" t="s">
+        <v>120</v>
+      </c>
+      <c r="N13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14">
+        <v>6</v>
+      </c>
+      <c r="K14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" t="s">
+        <v>133</v>
+      </c>
+      <c r="O14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15">
+        <v>6</v>
+      </c>
+      <c r="K15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O15" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1303,12 +1558,20 @@
     <hyperlink ref="D4" r:id="rId9" xr:uid="{C25F3E10-5A97-474A-8302-171D6E12A068}"/>
     <hyperlink ref="D3" r:id="rId10" xr:uid="{6C8593F4-E39C-7044-BAB4-116000ECB4E1}"/>
     <hyperlink ref="D2" r:id="rId11" xr:uid="{D2ABED63-83FA-AA46-8685-A144C62D2069}"/>
-    <hyperlink ref="D9" r:id="rId12" xr:uid="{699E65F7-54AF-5445-BBA2-CA3429208577}"/>
-    <hyperlink ref="D8" r:id="rId13" xr:uid="{7406FDF9-A9F3-6B4E-ADAF-81CB163E94D8}"/>
+    <hyperlink ref="D10" r:id="rId12" xr:uid="{699E65F7-54AF-5445-BBA2-CA3429208577}"/>
+    <hyperlink ref="D9" r:id="rId13" xr:uid="{7406FDF9-A9F3-6B4E-ADAF-81CB163E94D8}"/>
     <hyperlink ref="D7" r:id="rId14" xr:uid="{0155EACC-5915-2446-9A96-04B353907789}"/>
-    <hyperlink ref="D10" r:id="rId15" xr:uid="{41E6F408-A699-6F44-A8F5-6AA27CD5D04E}"/>
-    <hyperlink ref="C10" r:id="rId16" xr:uid="{8C215D62-850F-8F4B-8029-2497AB6F5D92}"/>
-    <hyperlink ref="D11" r:id="rId17" xr:uid="{02619740-6D39-A741-90B4-3A5345C4F14D}"/>
+    <hyperlink ref="D11" r:id="rId15" xr:uid="{41E6F408-A699-6F44-A8F5-6AA27CD5D04E}"/>
+    <hyperlink ref="C11" r:id="rId16" xr:uid="{8C215D62-850F-8F4B-8029-2497AB6F5D92}"/>
+    <hyperlink ref="D12" r:id="rId17" xr:uid="{02619740-6D39-A741-90B4-3A5345C4F14D}"/>
+    <hyperlink ref="D8" r:id="rId18" xr:uid="{14DE3D37-50E1-2A45-B828-BDC41E90AD11}"/>
+    <hyperlink ref="D13" r:id="rId19" xr:uid="{207B5776-9BF5-1B4B-A3B8-093CC091D0CC}"/>
+    <hyperlink ref="C13" r:id="rId20" xr:uid="{9DC6B5A8-73E4-CD49-9839-F9B8E7EB06C2}"/>
+    <hyperlink ref="C8" r:id="rId21" xr:uid="{5B3ACD08-3FCD-CF42-BEB3-F50E16AC2DA0}"/>
+    <hyperlink ref="C14" r:id="rId22" xr:uid="{C72EC5A1-D3B2-EA4A-AAC7-6F7D4751B32C}"/>
+    <hyperlink ref="D14" r:id="rId23" xr:uid="{5478DE92-C497-5543-9FF3-5C27178A64AF}"/>
+    <hyperlink ref="C15" r:id="rId24" xr:uid="{8C8B2F8A-4366-944F-8EDF-CF42A338D46E}"/>
+    <hyperlink ref="D15" r:id="rId25" xr:uid="{7E2CAE74-B543-4649-B317-C6B2A30EB599}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dex_parameters.xlsx
+++ b/dex_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/new/Desktop/BuyTokenOnDex/project_env/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC0CFBB-CDA8-4446-8922-DB8094A33C46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E3EE95-8C38-F24A-AD8A-43BE5A2B054C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{88565959-7D13-C549-BFB5-A27F108CA62F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{88565959-7D13-C549-BFB5-A27F108CA62F}"/>
   </bookViews>
   <sheets>
     <sheet name="dex_parameters" sheetId="1" r:id="rId1"/>
@@ -435,9 +435,6 @@
     <t>0x19B85ae92947E0725d5265fFB3389e7E4F191FDa</t>
   </si>
   <si>
-    <t>https://rpc.atlascloud.network/04f5cbf6-753f-11ec-a14f-590dee8dcfea</t>
-  </si>
-  <si>
     <t>stellaswap</t>
   </si>
   <si>
@@ -448,6 +445,9 @@
   </si>
   <si>
     <t>0x818ec0A7Fe18Ff94269904fCED6AE3DaE6d6dC0b</t>
+  </si>
+  <si>
+    <t>https://rpc.ftm.tools/</t>
   </si>
 </sst>
 </file>
@@ -815,10 +815,10 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -989,7 +989,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>94</v>
@@ -1036,7 +1036,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>94</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s">
         <v>125</v>
@@ -1518,7 +1518,7 @@
         <v>129</v>
       </c>
       <c r="G15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H15" t="s">
         <v>64</v>
@@ -1533,13 +1533,13 @@
         <v>56</v>
       </c>
       <c r="L15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M15" t="s">
         <v>50</v>
       </c>
       <c r="N15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O15" t="s">
         <v>132</v>
